--- a/raw_data/20200818_saline/20200818_Sensor1_Test_8.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_8.xlsx
@@ -1,628 +1,1044 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16AA22D-1DAE-48DF-AECF-DA2673F380B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>6486.094348</v>
+        <v>6486.0943479999996</v>
       </c>
       <c r="B2" s="1">
         <v>1.801693</v>
       </c>
       <c r="C2" s="1">
-        <v>899.705000</v>
+        <v>899.70500000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>-200.518000</v>
+        <v>-200.518</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>6496.147276</v>
+        <v>6496.1472759999997</v>
       </c>
       <c r="G2" s="1">
-        <v>1.804485</v>
+        <v>1.8044849999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>917.725000</v>
+        <v>917.72500000000002</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.434000</v>
+        <v>-169.434</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>6506.230434</v>
+        <v>6506.2304340000001</v>
       </c>
       <c r="L2" s="1">
-        <v>1.807286</v>
+        <v>1.8072859999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>940.220000</v>
+        <v>940.22</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.727000</v>
+        <v>-119.727</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>6516.389494</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.810108</v>
+        <v>1.8101080000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>946.863000</v>
+        <v>946.86300000000006</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.335000</v>
+        <v>-103.33499999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>6526.971639</v>
+        <v>6526.9716390000003</v>
       </c>
       <c r="V2" s="1">
         <v>1.813048</v>
       </c>
       <c r="W2" s="1">
-        <v>953.253000</v>
+        <v>953.25300000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.163600</v>
+        <v>-88.163600000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>6537.440202</v>
+        <v>6537.4402019999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>1.815956</v>
+        <v>1.8159559999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.235000</v>
+        <v>960.23500000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.316000</v>
+        <v>-76.316000000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>6548.021852</v>
+        <v>6548.0218519999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>1.818895</v>
+        <v>1.8188949999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>964.812000</v>
+        <v>964.81200000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.053800</v>
+        <v>-74.053799999999995</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>6558.433373</v>
+        <v>6558.4333729999998</v>
       </c>
       <c r="AK2" s="1">
         <v>1.821787</v>
       </c>
       <c r="AL2" s="1">
-        <v>971.869000</v>
+        <v>971.86900000000003</v>
       </c>
       <c r="AM2" s="1">
-        <v>-78.555300</v>
+        <v>-78.555300000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>6569.024450</v>
+        <v>6569.0244499999999</v>
       </c>
       <c r="AP2" s="1">
         <v>1.824729</v>
       </c>
       <c r="AQ2" s="1">
-        <v>979.775000</v>
+        <v>979.77499999999998</v>
       </c>
       <c r="AR2" s="1">
-        <v>-89.882000</v>
+        <v>-89.882000000000005</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>6580.029217</v>
+        <v>6580.0292170000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>1.827786</v>
+        <v>1.8277859999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>989.388000</v>
+        <v>989.38800000000003</v>
       </c>
       <c r="AW2" s="1">
-        <v>-107.249000</v>
+        <v>-107.249</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>6591.394515</v>
@@ -631,542 +1047,542 @@
         <v>1.830943</v>
       </c>
       <c r="BA2" s="1">
-        <v>997.411000</v>
+        <v>997.41099999999994</v>
       </c>
       <c r="BB2" s="1">
-        <v>-122.643000</v>
+        <v>-122.643</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>6602.288178</v>
+        <v>6602.2881779999998</v>
       </c>
       <c r="BE2" s="1">
         <v>1.833969</v>
       </c>
       <c r="BF2" s="1">
-        <v>1034.860000</v>
+        <v>1034.8599999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-193.835000</v>
+        <v>-193.83500000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>6613.325652</v>
+        <v>6613.3256520000004</v>
       </c>
       <c r="BJ2" s="1">
         <v>1.837035</v>
       </c>
       <c r="BK2" s="1">
-        <v>1099.540000</v>
+        <v>1099.54</v>
       </c>
       <c r="BL2" s="1">
-        <v>-310.304000</v>
+        <v>-310.30399999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>6623.664262</v>
+        <v>6623.6642620000002</v>
       </c>
       <c r="BO2" s="1">
         <v>1.839907</v>
       </c>
       <c r="BP2" s="1">
-        <v>1205.380000</v>
+        <v>1205.3800000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-495.405000</v>
+        <v>-495.40499999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>6634.046985</v>
+        <v>6634.0469849999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>1.842791</v>
+        <v>1.8427910000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1325.440000</v>
+        <v>1325.44</v>
       </c>
       <c r="BV2" s="1">
-        <v>-699.656000</v>
+        <v>-699.65599999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>6645.033866</v>
+        <v>6645.0338659999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>1.845843</v>
+        <v>1.8458429999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1460.660000</v>
+        <v>1460.66</v>
       </c>
       <c r="CA2" s="1">
-        <v>-917.176000</v>
+        <v>-917.17600000000004</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>6655.938913</v>
       </c>
       <c r="CD2" s="1">
-        <v>1.848872</v>
+        <v>1.8488720000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1817.510000</v>
+        <v>1817.51</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1436.560000</v>
+        <v>-1436.56</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>6486.471308</v>
+        <v>6486.4713080000001</v>
       </c>
       <c r="B3" s="1">
         <v>1.801798</v>
       </c>
       <c r="C3" s="1">
-        <v>899.721000</v>
+        <v>899.721</v>
       </c>
       <c r="D3" s="1">
-        <v>-200.682000</v>
+        <v>-200.68199999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>6496.492478</v>
+        <v>6496.4924780000001</v>
       </c>
       <c r="G3" s="1">
         <v>1.804581</v>
       </c>
       <c r="H3" s="1">
-        <v>917.072000</v>
+        <v>917.072</v>
       </c>
       <c r="I3" s="1">
-        <v>-169.681000</v>
+        <v>-169.68100000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>6506.644128</v>
+        <v>6506.6441279999999</v>
       </c>
       <c r="L3" s="1">
         <v>1.807401</v>
       </c>
       <c r="M3" s="1">
-        <v>940.319000</v>
+        <v>940.31899999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.725000</v>
+        <v>-119.72499999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>6516.804151</v>
+        <v>6516.8041510000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.810223</v>
+        <v>1.8102229999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>946.897000</v>
+        <v>946.89700000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.272000</v>
+        <v>-103.27200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>6527.374886</v>
+        <v>6527.3748859999996</v>
       </c>
       <c r="V3" s="1">
-        <v>1.813160</v>
+        <v>1.8131600000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>953.232000</v>
+        <v>953.23199999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.092000</v>
+        <v>-88.091999999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>6537.827080</v>
+        <v>6537.82708</v>
       </c>
       <c r="AA3" s="1">
         <v>1.816063</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.197000</v>
+        <v>960.197</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.344000</v>
+        <v>-76.343999999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>6548.381978</v>
+        <v>6548.3819780000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>1.818995</v>
+        <v>1.8189949999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.803000</v>
+        <v>964.803</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.050000</v>
+        <v>-74.05</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>6558.819756</v>
+        <v>6558.8197559999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>1.821894</v>
+        <v>1.8218939999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>971.867000</v>
+        <v>971.86699999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-78.552900</v>
+        <v>-78.552899999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>6569.467375</v>
+        <v>6569.4673750000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>1.824852</v>
+        <v>1.8248519999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>979.793000</v>
+        <v>979.79300000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-89.870500</v>
+        <v>-89.870500000000007</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>6580.439377</v>
+        <v>6580.4393769999997</v>
       </c>
       <c r="AU3" s="1">
-        <v>1.827900</v>
+        <v>1.8279000000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>989.376000</v>
+        <v>989.37599999999998</v>
       </c>
       <c r="AW3" s="1">
-        <v>-107.259000</v>
+        <v>-107.259</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>6591.798273</v>
+        <v>6591.7982730000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1.831055</v>
+        <v>1.8310550000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>997.419000</v>
+        <v>997.41899999999998</v>
       </c>
       <c r="BB3" s="1">
-        <v>-122.654000</v>
+        <v>-122.654</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>6602.678995</v>
+        <v>6602.6789950000002</v>
       </c>
       <c r="BE3" s="1">
         <v>1.834077</v>
       </c>
       <c r="BF3" s="1">
-        <v>1034.860000</v>
+        <v>1034.8599999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-193.823000</v>
+        <v>-193.82300000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>6613.705555</v>
+        <v>6613.7055549999995</v>
       </c>
       <c r="BJ3" s="1">
-        <v>1.837140</v>
+        <v>1.83714</v>
       </c>
       <c r="BK3" s="1">
-        <v>1099.540000</v>
+        <v>1099.54</v>
       </c>
       <c r="BL3" s="1">
-        <v>-310.322000</v>
+        <v>-310.322</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>6624.409749</v>
+        <v>6624.4097490000004</v>
       </c>
       <c r="BO3" s="1">
         <v>1.840114</v>
       </c>
       <c r="BP3" s="1">
-        <v>1205.330000</v>
+        <v>1205.33</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-495.398000</v>
+        <v>-495.39800000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>6634.785529</v>
+        <v>6634.7855289999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>1.842996</v>
+        <v>1.8429960000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1325.250000</v>
+        <v>1325.25</v>
       </c>
       <c r="BV3" s="1">
-        <v>-699.580000</v>
+        <v>-699.58</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>6645.211466</v>
+        <v>6645.2114659999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>1.845892</v>
+        <v>1.8458920000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1460.620000</v>
+        <v>1460.62</v>
       </c>
       <c r="CA3" s="1">
-        <v>-917.271000</v>
+        <v>-917.27099999999996</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>6656.226093</v>
+        <v>6656.2260930000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>1.848952</v>
+        <v>1.8489519999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1817.570000</v>
+        <v>1817.57</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1436.540000</v>
+        <v>-1436.54</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>6486.906300</v>
+        <v>6486.9062999999996</v>
       </c>
       <c r="B4" s="1">
-        <v>1.801918</v>
+        <v>1.8019179999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>899.657000</v>
+        <v>899.65700000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>-200.798000</v>
+        <v>-200.798</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>6496.917054</v>
+        <v>6496.9170539999996</v>
       </c>
       <c r="G4" s="1">
-        <v>1.804699</v>
+        <v>1.8046990000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>916.873000</v>
+        <v>916.87300000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.466000</v>
+        <v>-169.46600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>6506.960049</v>
+        <v>6506.9600490000003</v>
       </c>
       <c r="L4" s="1">
-        <v>1.807489</v>
+        <v>1.8074889999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>940.314000</v>
+        <v>940.31399999999996</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.716000</v>
+        <v>-119.71599999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>6517.167717</v>
+        <v>6517.1677170000003</v>
       </c>
       <c r="Q4" s="1">
         <v>1.810324</v>
       </c>
       <c r="R4" s="1">
-        <v>946.875000</v>
+        <v>946.875</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.284000</v>
+        <v>-103.28400000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>6527.719605</v>
+        <v>6527.7196050000002</v>
       </c>
       <c r="V4" s="1">
-        <v>1.813255</v>
+        <v>1.8132550000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>953.236000</v>
+        <v>953.23599999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.179800</v>
+        <v>-88.1798</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>6538.172792</v>
+        <v>6538.1727920000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>1.816159</v>
+        <v>1.8161590000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.267000</v>
+        <v>960.26700000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.361600</v>
+        <v>-76.361599999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>6548.735106</v>
+        <v>6548.7351060000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>1.819093</v>
+        <v>1.8190930000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>964.803000</v>
+        <v>964.803</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.044400</v>
+        <v>-74.044399999999996</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>6559.517628</v>
+        <v>6559.5176279999996</v>
       </c>
       <c r="AK4" s="1">
-        <v>1.822088</v>
+        <v>1.8220879999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>971.849000</v>
+        <v>971.84900000000005</v>
       </c>
       <c r="AM4" s="1">
-        <v>-78.557300</v>
+        <v>-78.557299999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>6570.181117</v>
+        <v>6570.1811170000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>1.825050</v>
+        <v>1.8250500000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>979.774000</v>
+        <v>979.774</v>
       </c>
       <c r="AR4" s="1">
-        <v>-89.905900</v>
+        <v>-89.905900000000003</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>6580.788559</v>
+        <v>6580.7885589999996</v>
       </c>
       <c r="AU4" s="1">
-        <v>1.827997</v>
+        <v>1.8279970000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>989.406000</v>
+        <v>989.40599999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-107.236000</v>
+        <v>-107.236</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>6592.160336</v>
+        <v>6592.1603359999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>1.831156</v>
       </c>
       <c r="BA4" s="1">
-        <v>997.423000</v>
+        <v>997.423</v>
       </c>
       <c r="BB4" s="1">
-        <v>-122.630000</v>
+        <v>-122.63</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>6603.028210</v>
+        <v>6603.0282100000004</v>
       </c>
       <c r="BE4" s="1">
-        <v>1.834175</v>
+        <v>1.8341750000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1034.860000</v>
+        <v>1034.8599999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-193.838000</v>
+        <v>-193.83799999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>6614.391028</v>
@@ -1175,709 +1591,709 @@
         <v>1.837331</v>
       </c>
       <c r="BK4" s="1">
-        <v>1099.500000</v>
+        <v>1099.5</v>
       </c>
       <c r="BL4" s="1">
-        <v>-310.314000</v>
+        <v>-310.31400000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>6624.522309</v>
       </c>
       <c r="BO4" s="1">
-        <v>1.840145</v>
+        <v>1.8401449999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1205.340000</v>
+        <v>1205.3399999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-495.403000</v>
+        <v>-495.40300000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>6634.913000</v>
+        <v>6634.9129999999996</v>
       </c>
       <c r="BT4" s="1">
-        <v>1.843031</v>
+        <v>1.8430310000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1325.140000</v>
+        <v>1325.14</v>
       </c>
       <c r="BV4" s="1">
-        <v>-699.597000</v>
+        <v>-699.59699999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>6645.631545</v>
+        <v>6645.6315450000002</v>
       </c>
       <c r="BY4" s="1">
         <v>1.846009</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1460.670000</v>
+        <v>1460.67</v>
       </c>
       <c r="CA4" s="1">
-        <v>-917.168000</v>
+        <v>-917.16800000000001</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>6656.741953</v>
+        <v>6656.7419529999997</v>
       </c>
       <c r="CD4" s="1">
-        <v>1.849095</v>
+        <v>1.8490949999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1818.610000</v>
+        <v>1818.61</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1435.820000</v>
+        <v>-1435.82</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>6487.162731</v>
+        <v>6487.1627310000003</v>
       </c>
       <c r="B5" s="1">
-        <v>1.801990</v>
+        <v>1.80199</v>
       </c>
       <c r="C5" s="1">
-        <v>899.805000</v>
+        <v>899.80499999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-200.634000</v>
+        <v>-200.63399999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>6497.181464</v>
+        <v>6497.1814640000002</v>
       </c>
       <c r="G5" s="1">
         <v>1.804773</v>
       </c>
       <c r="H5" s="1">
-        <v>917.228000</v>
+        <v>917.22799999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-169.325000</v>
+        <v>-169.32499999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>6507.305123</v>
+        <v>6507.3051230000001</v>
       </c>
       <c r="L5" s="1">
         <v>1.807585</v>
       </c>
       <c r="M5" s="1">
-        <v>940.280000</v>
+        <v>940.28</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.683000</v>
+        <v>-119.68300000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>6517.515411</v>
+        <v>6517.5154110000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.810421</v>
+        <v>1.8104210000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>946.902000</v>
+        <v>946.90200000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.297000</v>
+        <v>-103.297</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>6528.061348</v>
+        <v>6528.0613480000002</v>
       </c>
       <c r="V5" s="1">
-        <v>1.813350</v>
+        <v>1.81335</v>
       </c>
       <c r="W5" s="1">
-        <v>953.311000</v>
+        <v>953.31100000000004</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.124100</v>
+        <v>-88.124099999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>6538.871667</v>
+        <v>6538.8716670000003</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.816353</v>
+        <v>1.8163530000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.259000</v>
+        <v>960.25900000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.394500</v>
+        <v>-76.394499999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>6549.422090</v>
+        <v>6549.42209</v>
       </c>
       <c r="AF5" s="1">
-        <v>1.819284</v>
+        <v>1.8192839999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>964.801000</v>
+        <v>964.80100000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.051200</v>
+        <v>-74.051199999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>6559.866315</v>
+        <v>6559.8663150000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>1.822185</v>
+        <v>1.8221849999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>971.877000</v>
+        <v>971.87699999999995</v>
       </c>
       <c r="AM5" s="1">
-        <v>-78.590100</v>
+        <v>-78.590100000000007</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>6570.508477</v>
+        <v>6570.5084770000003</v>
       </c>
       <c r="AP5" s="1">
-        <v>1.825141</v>
+        <v>1.8251409999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>979.783000</v>
+        <v>979.78300000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-89.859700</v>
+        <v>-89.859700000000004</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>6581.153119</v>
+        <v>6581.1531189999996</v>
       </c>
       <c r="AU5" s="1">
         <v>1.828098</v>
       </c>
       <c r="AV5" s="1">
-        <v>989.423000</v>
+        <v>989.423</v>
       </c>
       <c r="AW5" s="1">
-        <v>-107.252000</v>
+        <v>-107.252</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>6592.829944</v>
+        <v>6592.8299440000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>1.831342</v>
       </c>
       <c r="BA5" s="1">
-        <v>997.379000</v>
+        <v>997.37900000000002</v>
       </c>
       <c r="BB5" s="1">
-        <v>-122.647000</v>
+        <v>-122.64700000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>6603.769729</v>
+        <v>6603.7697289999996</v>
       </c>
       <c r="BE5" s="1">
-        <v>1.834380</v>
+        <v>1.8343799999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1034.860000</v>
+        <v>1034.8599999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-193.841000</v>
+        <v>-193.84100000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>6614.500178</v>
+        <v>6614.5001780000002</v>
       </c>
       <c r="BJ5" s="1">
         <v>1.837361</v>
       </c>
       <c r="BK5" s="1">
-        <v>1099.500000</v>
+        <v>1099.5</v>
       </c>
       <c r="BL5" s="1">
-        <v>-310.346000</v>
+        <v>-310.346</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>6624.942949</v>
+        <v>6624.9429490000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>1.840262</v>
+        <v>1.8402620000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1205.360000</v>
+        <v>1205.3599999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-495.384000</v>
+        <v>-495.38400000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>6635.322199</v>
+        <v>6635.3221990000002</v>
       </c>
       <c r="BT5" s="1">
         <v>1.843145</v>
       </c>
       <c r="BU5" s="1">
-        <v>1325.050000</v>
+        <v>1325.05</v>
       </c>
       <c r="BV5" s="1">
-        <v>-699.427000</v>
+        <v>-699.42700000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>6646.055161</v>
+        <v>6646.0551610000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>1.846126</v>
+        <v>1.8461259999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1460.590000</v>
+        <v>1460.59</v>
       </c>
       <c r="CA5" s="1">
-        <v>-917.241000</v>
+        <v>-917.24099999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>6657.264714</v>
+        <v>6657.2647139999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>1.849240</v>
+        <v>1.84924</v>
       </c>
       <c r="CE5" s="1">
-        <v>1817.600000</v>
+        <v>1817.6</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1435.220000</v>
+        <v>-1435.22</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>6487.497035</v>
+        <v>6487.4970350000003</v>
       </c>
       <c r="B6" s="1">
-        <v>1.802083</v>
+        <v>1.8020830000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>899.800000</v>
+        <v>899.8</v>
       </c>
       <c r="D6" s="1">
-        <v>-200.626000</v>
+        <v>-200.626</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>6497.524157</v>
+        <v>6497.5241569999998</v>
       </c>
       <c r="G6" s="1">
-        <v>1.804868</v>
+        <v>1.8048679999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>917.289000</v>
+        <v>917.28899999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-169.372000</v>
+        <v>-169.37200000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>6507.652961</v>
+        <v>6507.6529609999998</v>
       </c>
       <c r="L6" s="1">
-        <v>1.807681</v>
+        <v>1.8076810000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>940.288000</v>
+        <v>940.28800000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.628000</v>
+        <v>-119.628</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>6518.172609</v>
+        <v>6518.1726090000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.810604</v>
+        <v>1.8106040000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>946.920000</v>
+        <v>946.92</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.308000</v>
+        <v>-103.30800000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>6528.749301</v>
+        <v>6528.7493009999998</v>
       </c>
       <c r="V6" s="1">
-        <v>1.813541</v>
+        <v>1.8135410000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>953.316000</v>
+        <v>953.31600000000003</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.200300</v>
+        <v>-88.200299999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>6539.220838</v>
+        <v>6539.2208380000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>1.816450</v>
+        <v>1.8164499999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.225000</v>
+        <v>960.22500000000002</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.369800</v>
+        <v>-76.369799999999998</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>6549.768795</v>
       </c>
       <c r="AF6" s="1">
-        <v>1.819380</v>
+        <v>1.81938</v>
       </c>
       <c r="AG6" s="1">
-        <v>964.813000</v>
+        <v>964.81299999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.054500</v>
+        <v>-74.054500000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>6560.215994</v>
+        <v>6560.2159940000001</v>
       </c>
       <c r="AK6" s="1">
         <v>1.822282</v>
       </c>
       <c r="AL6" s="1">
-        <v>971.871000</v>
+        <v>971.87099999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-78.567800</v>
+        <v>-78.567800000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>6571.181579</v>
+        <v>6571.1815790000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>1.825328</v>
+        <v>1.8253280000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>979.783000</v>
+        <v>979.78300000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-89.885400</v>
+        <v>-89.885400000000004</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>6581.831151</v>
+        <v>6581.8311510000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>1.828286</v>
+        <v>1.8282860000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>989.404000</v>
+        <v>989.404</v>
       </c>
       <c r="AW6" s="1">
-        <v>-107.253000</v>
+        <v>-107.253</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>6593.265454</v>
+        <v>6593.2654540000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1.831463</v>
+        <v>1.8314630000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>997.399000</v>
+        <v>997.399</v>
       </c>
       <c r="BB6" s="1">
-        <v>-122.634000</v>
+        <v>-122.634</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>6604.143192</v>
+        <v>6604.1431920000005</v>
       </c>
       <c r="BE6" s="1">
         <v>1.834484</v>
       </c>
       <c r="BF6" s="1">
-        <v>1034.850000</v>
+        <v>1034.8499999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-193.832000</v>
+        <v>-193.83199999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>6614.852306</v>
+        <v>6614.8523059999998</v>
       </c>
       <c r="BJ6" s="1">
         <v>1.837459</v>
       </c>
       <c r="BK6" s="1">
-        <v>1099.510000</v>
+        <v>1099.51</v>
       </c>
       <c r="BL6" s="1">
-        <v>-310.368000</v>
+        <v>-310.36799999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>6625.336277</v>
+        <v>6625.3362770000003</v>
       </c>
       <c r="BO6" s="1">
         <v>1.840371</v>
       </c>
       <c r="BP6" s="1">
-        <v>1205.330000</v>
+        <v>1205.33</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-495.428000</v>
+        <v>-495.428</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>6635.757217</v>
+        <v>6635.7572170000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>1.843266</v>
+        <v>1.8432660000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1325.130000</v>
+        <v>1325.13</v>
       </c>
       <c r="BV6" s="1">
-        <v>-699.234000</v>
+        <v>-699.23400000000004</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>6646.504009</v>
+        <v>6646.5040090000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>1.846251</v>
+        <v>1.8462510000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1460.510000</v>
+        <v>1460.51</v>
       </c>
       <c r="CA6" s="1">
-        <v>-917.201000</v>
+        <v>-917.20100000000002</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>6657.799401</v>
+        <v>6657.7994010000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>1.849389</v>
+        <v>1.8493889999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1818.170000</v>
+        <v>1818.17</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1436.380000</v>
+        <v>-1436.38</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>6487.837786</v>
+        <v>6487.8377860000001</v>
       </c>
       <c r="B7" s="1">
-        <v>1.802177</v>
+        <v>1.8021769999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>899.859000</v>
+        <v>899.85900000000004</v>
       </c>
       <c r="D7" s="1">
-        <v>-200.420000</v>
+        <v>-200.42</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>6497.870893</v>
+        <v>6497.8708930000003</v>
       </c>
       <c r="G7" s="1">
         <v>1.804964</v>
       </c>
       <c r="H7" s="1">
-        <v>916.999000</v>
+        <v>916.99900000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-169.554000</v>
+        <v>-169.554</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>6508.343887</v>
       </c>
       <c r="L7" s="1">
-        <v>1.807873</v>
+        <v>1.8078730000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>940.510000</v>
+        <v>940.51</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.672000</v>
+        <v>-119.672</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>6518.563458</v>
+        <v>6518.5634579999996</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.810712</v>
+        <v>1.8107120000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>946.913000</v>
+        <v>946.91300000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.332000</v>
+        <v>-103.33199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>6529.093027</v>
+        <v>6529.0930269999999</v>
       </c>
       <c r="V7" s="1">
-        <v>1.813637</v>
+        <v>1.8136369999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>953.332000</v>
+        <v>953.33199999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.242400</v>
+        <v>-88.242400000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>6539.568827</v>
+        <v>6539.5688270000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>1.816547</v>
+        <v>1.8165469999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.217000</v>
+        <v>960.21699999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.413300</v>
+        <v>-76.413300000000007</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>6550.113479</v>
+        <v>6550.1134789999996</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.819476</v>
+        <v>1.8194760000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>964.824000</v>
+        <v>964.82399999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.056400</v>
+        <v>-74.056399999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>6560.867776</v>
       </c>
       <c r="AK7" s="1">
-        <v>1.822463</v>
+        <v>1.8224629999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>971.882000</v>
+        <v>971.88199999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-78.579600</v>
+        <v>-78.579599999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>6571.590252</v>
@@ -1886,784 +2302,784 @@
         <v>1.825442</v>
       </c>
       <c r="AQ7" s="1">
-        <v>979.794000</v>
+        <v>979.79399999999998</v>
       </c>
       <c r="AR7" s="1">
-        <v>-89.880800</v>
+        <v>-89.880799999999994</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>6582.280558</v>
+        <v>6582.2805580000004</v>
       </c>
       <c r="AU7" s="1">
         <v>1.828411</v>
       </c>
       <c r="AV7" s="1">
-        <v>989.414000</v>
+        <v>989.41399999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-107.250000</v>
+        <v>-107.25</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>6593.625022</v>
+        <v>6593.6250220000002</v>
       </c>
       <c r="AZ7" s="1">
-        <v>1.831563</v>
+        <v>1.8315630000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>997.400000</v>
+        <v>997.4</v>
       </c>
       <c r="BB7" s="1">
-        <v>-122.656000</v>
+        <v>-122.65600000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>6604.513697</v>
+        <v>6604.5136970000003</v>
       </c>
       <c r="BE7" s="1">
         <v>1.834587</v>
       </c>
       <c r="BF7" s="1">
-        <v>1034.840000</v>
+        <v>1034.8399999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-193.843000</v>
+        <v>-193.84299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>6615.225826</v>
+        <v>6615.2258259999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>1.837563</v>
+        <v>1.8375630000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1099.510000</v>
+        <v>1099.51</v>
       </c>
       <c r="BL7" s="1">
-        <v>-310.330000</v>
+        <v>-310.33</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>6625.762309</v>
+        <v>6625.7623089999997</v>
       </c>
       <c r="BO7" s="1">
-        <v>1.840490</v>
+        <v>1.84049</v>
       </c>
       <c r="BP7" s="1">
-        <v>1205.310000</v>
+        <v>1205.31</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-495.413000</v>
+        <v>-495.41300000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>6636.184741</v>
       </c>
       <c r="BT7" s="1">
-        <v>1.843385</v>
+        <v>1.8433850000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1325.140000</v>
+        <v>1325.14</v>
       </c>
       <c r="BV7" s="1">
-        <v>-699.197000</v>
+        <v>-699.197</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>6646.938504</v>
+        <v>6646.9385039999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>1.846372</v>
+        <v>1.8463719999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1460.520000</v>
+        <v>1460.52</v>
       </c>
       <c r="CA7" s="1">
-        <v>-917.277000</v>
+        <v>-917.27700000000004</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>6658.340568</v>
+        <v>6658.3405679999996</v>
       </c>
       <c r="CD7" s="1">
         <v>1.849539</v>
       </c>
       <c r="CE7" s="1">
-        <v>1818.140000</v>
+        <v>1818.14</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1434.770000</v>
+        <v>-1434.77</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>6488.522761</v>
+        <v>6488.5227610000002</v>
       </c>
       <c r="B8" s="1">
-        <v>1.802367</v>
+        <v>1.8023670000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>899.688000</v>
+        <v>899.68799999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-200.601000</v>
+        <v>-200.601</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>6498.561789</v>
+        <v>6498.5617890000003</v>
       </c>
       <c r="G8" s="1">
         <v>1.805156</v>
       </c>
       <c r="H8" s="1">
-        <v>917.654000</v>
+        <v>917.654</v>
       </c>
       <c r="I8" s="1">
-        <v>-169.815000</v>
+        <v>-169.815</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>6508.691118</v>
+        <v>6508.6911179999997</v>
       </c>
       <c r="L8" s="1">
-        <v>1.807970</v>
+        <v>1.8079700000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>940.177000</v>
+        <v>940.17700000000002</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.917000</v>
+        <v>-119.917</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>6518.910161</v>
+        <v>6518.9101609999998</v>
       </c>
       <c r="Q8" s="1">
         <v>1.810808</v>
       </c>
       <c r="R8" s="1">
-        <v>946.857000</v>
+        <v>946.85699999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.318000</v>
+        <v>-103.318</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>6529.437252</v>
+        <v>6529.4372519999997</v>
       </c>
       <c r="V8" s="1">
         <v>1.813733</v>
       </c>
       <c r="W8" s="1">
-        <v>953.336000</v>
+        <v>953.33600000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.179500</v>
+        <v>-88.179500000000004</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>6540.221766</v>
+        <v>6540.2217659999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>1.816728</v>
+        <v>1.8167279999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.250000</v>
+        <v>960.25</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.398000</v>
+        <v>-76.397999999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>6550.767882</v>
+        <v>6550.7678820000001</v>
       </c>
       <c r="AF8" s="1">
         <v>1.819658</v>
       </c>
       <c r="AG8" s="1">
-        <v>964.805000</v>
+        <v>964.80499999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.082200</v>
+        <v>-74.0822</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>6561.246681</v>
+        <v>6561.2466809999996</v>
       </c>
       <c r="AK8" s="1">
-        <v>1.822569</v>
+        <v>1.8225690000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>971.877000</v>
+        <v>971.87699999999995</v>
       </c>
       <c r="AM8" s="1">
-        <v>-78.558200</v>
+        <v>-78.558199999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>6571.977130</v>
+        <v>6571.9771300000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>1.825549</v>
+        <v>1.8255490000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>979.792000</v>
+        <v>979.79200000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-89.880900</v>
+        <v>-89.880899999999997</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>6582.646076</v>
       </c>
       <c r="AU8" s="1">
-        <v>1.828513</v>
+        <v>1.8285130000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>989.384000</v>
+        <v>989.38400000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-107.256000</v>
+        <v>-107.256</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>6593.983631</v>
+        <v>6593.9836310000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>1.831662</v>
+        <v>1.8316619999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>997.435000</v>
+        <v>997.43499999999995</v>
       </c>
       <c r="BB8" s="1">
-        <v>-122.652000</v>
+        <v>-122.652</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>6604.922896</v>
       </c>
       <c r="BE8" s="1">
-        <v>1.834701</v>
+        <v>1.8347009999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1034.860000</v>
+        <v>1034.8599999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-193.838000</v>
+        <v>-193.83799999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>6615.632545</v>
+        <v>6615.6325450000004</v>
       </c>
       <c r="BJ8" s="1">
-        <v>1.837676</v>
+        <v>1.8376760000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1099.520000</v>
+        <v>1099.52</v>
       </c>
       <c r="BL8" s="1">
-        <v>-310.320000</v>
+        <v>-310.32</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>6626.158611</v>
+        <v>6626.1586109999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.840600</v>
+        <v>1.8406</v>
       </c>
       <c r="BP8" s="1">
-        <v>1205.320000</v>
+        <v>1205.32</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-495.436000</v>
+        <v>-495.43599999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>6636.596949</v>
+        <v>6636.5969489999998</v>
       </c>
       <c r="BT8" s="1">
         <v>1.843499</v>
       </c>
       <c r="BU8" s="1">
-        <v>1325.240000</v>
+        <v>1325.24</v>
       </c>
       <c r="BV8" s="1">
-        <v>-699.075000</v>
+        <v>-699.07500000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>6647.359269</v>
+        <v>6647.3592689999996</v>
       </c>
       <c r="BY8" s="1">
         <v>1.846489</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1460.610000</v>
+        <v>1460.61</v>
       </c>
       <c r="CA8" s="1">
-        <v>-917.296000</v>
+        <v>-917.29600000000005</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>6658.879688</v>
       </c>
       <c r="CD8" s="1">
-        <v>1.849689</v>
+        <v>1.8496889999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1817.450000</v>
+        <v>1817.45</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1436.270000</v>
+        <v>-1436.27</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>6488.863550</v>
+        <v>6488.86355</v>
       </c>
       <c r="B9" s="1">
         <v>1.802462</v>
       </c>
       <c r="C9" s="1">
-        <v>899.705000</v>
+        <v>899.70500000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-200.533000</v>
+        <v>-200.53299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>6498.905752</v>
+        <v>6498.9057519999997</v>
       </c>
       <c r="G9" s="1">
-        <v>1.805252</v>
+        <v>1.8052520000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>917.556000</v>
+        <v>917.55600000000004</v>
       </c>
       <c r="I9" s="1">
-        <v>-169.395000</v>
+        <v>-169.39500000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>6509.033822</v>
+        <v>6509.0338220000003</v>
       </c>
       <c r="L9" s="1">
         <v>1.808065</v>
       </c>
       <c r="M9" s="1">
-        <v>940.255000</v>
+        <v>940.255</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.801000</v>
+        <v>-119.801</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>6519.566395</v>
+        <v>6519.5663949999998</v>
       </c>
       <c r="Q9" s="1">
         <v>1.810991</v>
       </c>
       <c r="R9" s="1">
-        <v>946.883000</v>
+        <v>946.88300000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.291000</v>
+        <v>-103.291</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>6530.096434</v>
       </c>
       <c r="V9" s="1">
-        <v>1.813916</v>
+        <v>1.8139160000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>953.271000</v>
+        <v>953.27099999999996</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.100700</v>
+        <v>-88.100700000000003</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>6540.615588</v>
+        <v>6540.6155879999997</v>
       </c>
       <c r="AA9" s="1">
         <v>1.816838</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.196000</v>
+        <v>960.19600000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.410400</v>
+        <v>-76.410399999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>6551.142183</v>
+        <v>6551.1421829999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>1.819762</v>
+        <v>1.8197620000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.831000</v>
+        <v>964.83100000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.073200</v>
+        <v>-74.0732</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>6561.608264</v>
+        <v>6561.6082640000004</v>
       </c>
       <c r="AK9" s="1">
-        <v>1.822669</v>
+        <v>1.8226690000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>971.877000</v>
+        <v>971.87699999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-78.543400</v>
+        <v>-78.543400000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>6572.336236</v>
+        <v>6572.3362360000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>1.825649</v>
+        <v>1.8256490000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>979.787000</v>
+        <v>979.78700000000003</v>
       </c>
       <c r="AR9" s="1">
-        <v>-89.878100</v>
+        <v>-89.878100000000003</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>6583.011628</v>
+        <v>6583.0116280000002</v>
       </c>
       <c r="AU9" s="1">
         <v>1.828614</v>
       </c>
       <c r="AV9" s="1">
-        <v>989.383000</v>
+        <v>989.38300000000004</v>
       </c>
       <c r="AW9" s="1">
-        <v>-107.250000</v>
+        <v>-107.25</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>6594.398285</v>
+        <v>6594.3982850000002</v>
       </c>
       <c r="AZ9" s="1">
         <v>1.831777</v>
       </c>
       <c r="BA9" s="1">
-        <v>997.407000</v>
+        <v>997.40700000000004</v>
       </c>
       <c r="BB9" s="1">
-        <v>-122.635000</v>
+        <v>-122.63500000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>6605.234879</v>
+        <v>6605.2348789999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>1.834787</v>
+        <v>1.8347869999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1034.850000</v>
+        <v>1034.8499999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-193.851000</v>
+        <v>-193.851</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>6615.980736</v>
+        <v>6615.9807360000004</v>
       </c>
       <c r="BJ9" s="1">
         <v>1.837772</v>
       </c>
       <c r="BK9" s="1">
-        <v>1099.530000</v>
+        <v>1099.53</v>
       </c>
       <c r="BL9" s="1">
-        <v>-310.356000</v>
+        <v>-310.35599999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>6626.581730</v>
+        <v>6626.5817299999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>1.840717</v>
+        <v>1.8407169999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1205.350000</v>
+        <v>1205.3499999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-495.444000</v>
+        <v>-495.44400000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>6637.028437</v>
+        <v>6637.0284369999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>1.843619</v>
+        <v>1.8436189999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1325.370000</v>
+        <v>1325.37</v>
       </c>
       <c r="BV9" s="1">
-        <v>-699.146000</v>
+        <v>-699.14599999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>6647.769800</v>
+        <v>6647.7698</v>
       </c>
       <c r="BY9" s="1">
         <v>1.846603</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1460.600000</v>
+        <v>1460.6</v>
       </c>
       <c r="CA9" s="1">
-        <v>-917.178000</v>
+        <v>-917.178</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>6659.420823</v>
+        <v>6659.4208230000004</v>
       </c>
       <c r="CD9" s="1">
         <v>1.849839</v>
       </c>
       <c r="CE9" s="1">
-        <v>1818.950000</v>
+        <v>1818.95</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1435.640000</v>
+        <v>-1435.64</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>6489.202776</v>
+        <v>6489.2027760000001</v>
       </c>
       <c r="B10" s="1">
         <v>1.802556</v>
       </c>
       <c r="C10" s="1">
-        <v>899.750000</v>
+        <v>899.75</v>
       </c>
       <c r="D10" s="1">
-        <v>-200.692000</v>
+        <v>-200.69200000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>6499.254699</v>
+        <v>6499.2546990000001</v>
       </c>
       <c r="G10" s="1">
-        <v>1.805349</v>
+        <v>1.8053490000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>917.226000</v>
+        <v>917.226</v>
       </c>
       <c r="I10" s="1">
-        <v>-169.653000</v>
+        <v>-169.65299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>6509.688116</v>
+        <v>6509.6881160000003</v>
       </c>
       <c r="L10" s="1">
-        <v>1.808247</v>
+        <v>1.8082469999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>940.455000</v>
+        <v>940.45500000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.779000</v>
+        <v>-119.779</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>6519.954735</v>
+        <v>6519.9547350000003</v>
       </c>
       <c r="Q10" s="1">
         <v>1.811099</v>
       </c>
       <c r="R10" s="1">
-        <v>946.914000</v>
+        <v>946.91399999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.295000</v>
+        <v>-103.295</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>6530.465457</v>
+        <v>6530.4654570000002</v>
       </c>
       <c r="V10" s="1">
-        <v>1.814018</v>
+        <v>1.8140179999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>953.307000</v>
+        <v>953.30700000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.223200</v>
+        <v>-88.223200000000006</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>6540.960836</v>
+        <v>6540.9608360000002</v>
       </c>
       <c r="AA10" s="1">
         <v>1.816934</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.206000</v>
+        <v>960.20600000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.421200</v>
+        <v>-76.421199999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>6551.488886</v>
+        <v>6551.4888860000001</v>
       </c>
       <c r="AF10" s="1">
         <v>1.819858</v>
       </c>
       <c r="AG10" s="1">
-        <v>964.816000</v>
+        <v>964.81600000000003</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.043700</v>
+        <v>-74.043700000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>6561.957943</v>
+        <v>6561.9579430000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>1.822766</v>
+        <v>1.8227660000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>971.873000</v>
+        <v>971.87300000000005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-78.573200</v>
+        <v>-78.5732</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>6572.763289</v>
+        <v>6572.7632890000004</v>
       </c>
       <c r="AP10" s="1">
-        <v>1.825768</v>
+        <v>1.8257680000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>979.777000</v>
+        <v>979.77700000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-89.904200</v>
+        <v>-89.904200000000003</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>6583.423804</v>
@@ -2672,73 +3088,73 @@
         <v>1.828729</v>
       </c>
       <c r="AV10" s="1">
-        <v>989.382000</v>
+        <v>989.38199999999995</v>
       </c>
       <c r="AW10" s="1">
-        <v>-107.241000</v>
+        <v>-107.241</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>6594.701838</v>
       </c>
       <c r="AZ10" s="1">
-        <v>1.831862</v>
+        <v>1.8318620000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>997.411000</v>
+        <v>997.41099999999994</v>
       </c>
       <c r="BB10" s="1">
-        <v>-122.631000</v>
+        <v>-122.631</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>6605.596269</v>
+        <v>6605.5962689999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>1.834888</v>
+        <v>1.8348880000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1034.870000</v>
+        <v>1034.8699999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-193.841000</v>
+        <v>-193.84100000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>6616.377506</v>
+        <v>6616.3775059999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>1.837883</v>
+        <v>1.8378829999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1099.520000</v>
+        <v>1099.52</v>
       </c>
       <c r="BL10" s="1">
-        <v>-310.341000</v>
+        <v>-310.34100000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>6626.975522</v>
+        <v>6626.9755219999997</v>
       </c>
       <c r="BO10" s="1">
         <v>1.840827</v>
       </c>
       <c r="BP10" s="1">
-        <v>1205.360000</v>
+        <v>1205.3599999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-495.410000</v>
+        <v>-495.41</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>6637.454041</v>
@@ -2747,1026 +3163,1026 @@
         <v>1.843737</v>
       </c>
       <c r="BU10" s="1">
-        <v>1325.550000</v>
+        <v>1325.55</v>
       </c>
       <c r="BV10" s="1">
-        <v>-699.129000</v>
+        <v>-699.12900000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>6648.207306</v>
+        <v>6648.2073060000002</v>
       </c>
       <c r="BY10" s="1">
         <v>1.846724</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1460.500000</v>
+        <v>1460.5</v>
       </c>
       <c r="CA10" s="1">
-        <v>-917.190000</v>
+        <v>-917.19</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>6659.958983</v>
+        <v>6659.9589830000004</v>
       </c>
       <c r="CD10" s="1">
-        <v>1.849989</v>
+        <v>1.8499890000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1817.390000</v>
+        <v>1817.39</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1434.960000</v>
+        <v>-1434.96</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>6489.866455</v>
+        <v>6489.8664550000003</v>
       </c>
       <c r="B11" s="1">
-        <v>1.802741</v>
+        <v>1.8027409999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>899.709000</v>
+        <v>899.70899999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-200.735000</v>
+        <v>-200.73500000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>6499.907434</v>
+        <v>6499.9074339999997</v>
       </c>
       <c r="G11" s="1">
-        <v>1.805530</v>
+        <v>1.8055300000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>917.498000</v>
+        <v>917.49800000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-169.401000</v>
+        <v>-169.40100000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>6510.074430</v>
+        <v>6510.0744299999997</v>
       </c>
       <c r="L11" s="1">
         <v>1.808354</v>
       </c>
       <c r="M11" s="1">
-        <v>940.220000</v>
+        <v>940.22</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.843000</v>
+        <v>-119.843</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>6520.306401</v>
+        <v>6520.3064009999998</v>
       </c>
       <c r="Q11" s="1">
         <v>1.811196</v>
       </c>
       <c r="R11" s="1">
-        <v>946.912000</v>
+        <v>946.91200000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.346000</v>
+        <v>-103.346</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>6530.811201</v>
+        <v>6530.8112010000004</v>
       </c>
       <c r="V11" s="1">
         <v>1.814114</v>
       </c>
       <c r="W11" s="1">
-        <v>953.301000</v>
+        <v>953.30100000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.221800</v>
+        <v>-88.221800000000002</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>6541.312963</v>
+        <v>6541.3129630000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.817031</v>
+        <v>1.8170310000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.186000</v>
+        <v>960.18600000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.328800</v>
+        <v>-76.328800000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>6551.832613</v>
+        <v>6551.8326129999996</v>
       </c>
       <c r="AF11" s="1">
-        <v>1.819954</v>
+        <v>1.8199540000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>964.821000</v>
+        <v>964.82100000000003</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.040600</v>
+        <v>-74.040599999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>6562.372632</v>
+        <v>6562.3726319999996</v>
       </c>
       <c r="AK11" s="1">
         <v>1.822881</v>
       </c>
       <c r="AL11" s="1">
-        <v>971.860000</v>
+        <v>971.86</v>
       </c>
       <c r="AM11" s="1">
-        <v>-78.547600</v>
+        <v>-78.547600000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>6573.053486</v>
+        <v>6573.0534859999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>1.825848</v>
+        <v>1.8258479999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>979.792000</v>
+        <v>979.79200000000003</v>
       </c>
       <c r="AR11" s="1">
-        <v>-89.894700</v>
+        <v>-89.8947</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>6583.741740</v>
+        <v>6583.7417400000004</v>
       </c>
       <c r="AU11" s="1">
-        <v>1.828817</v>
+        <v>1.8288169999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>989.396000</v>
+        <v>989.39599999999996</v>
       </c>
       <c r="AW11" s="1">
-        <v>-107.246000</v>
+        <v>-107.246</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>6595.060940</v>
+        <v>6595.0609400000003</v>
       </c>
       <c r="AZ11" s="1">
         <v>1.831961</v>
       </c>
       <c r="BA11" s="1">
-        <v>997.419000</v>
+        <v>997.41899999999998</v>
       </c>
       <c r="BB11" s="1">
-        <v>-122.645000</v>
+        <v>-122.645</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>6605.956559</v>
+        <v>6605.9565590000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>1.834988</v>
+        <v>1.8349880000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1034.870000</v>
+        <v>1034.8699999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-193.828000</v>
+        <v>-193.828</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>6616.752016</v>
+        <v>6616.7520160000004</v>
       </c>
       <c r="BJ11" s="1">
         <v>1.837987</v>
       </c>
       <c r="BK11" s="1">
-        <v>1099.510000</v>
+        <v>1099.51</v>
       </c>
       <c r="BL11" s="1">
-        <v>-310.360000</v>
+        <v>-310.36</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>6627.393650</v>
+        <v>6627.39365</v>
       </c>
       <c r="BO11" s="1">
         <v>1.840943</v>
       </c>
       <c r="BP11" s="1">
-        <v>1205.330000</v>
+        <v>1205.33</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-495.409000</v>
+        <v>-495.40899999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>6637.866219</v>
+        <v>6637.8662189999995</v>
       </c>
       <c r="BT11" s="1">
         <v>1.843852</v>
       </c>
       <c r="BU11" s="1">
-        <v>1325.630000</v>
+        <v>1325.63</v>
       </c>
       <c r="BV11" s="1">
-        <v>-699.223000</v>
+        <v>-699.22299999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>6648.621925</v>
+        <v>6648.6219250000004</v>
       </c>
       <c r="BY11" s="1">
-        <v>1.846839</v>
+        <v>1.8468389999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1460.470000</v>
+        <v>1460.47</v>
       </c>
       <c r="CA11" s="1">
-        <v>-917.326000</v>
+        <v>-917.32600000000002</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>6660.499126</v>
+        <v>6660.4991259999997</v>
       </c>
       <c r="CD11" s="1">
         <v>1.850139</v>
       </c>
       <c r="CE11" s="1">
-        <v>1818.000000</v>
+        <v>1818</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1436.910000</v>
+        <v>-1436.91</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>6490.227015</v>
+        <v>6490.2270150000004</v>
       </c>
       <c r="B12" s="1">
-        <v>1.802841</v>
+        <v>1.8028409999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>899.746000</v>
+        <v>899.74599999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-200.542000</v>
+        <v>-200.542</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>6500.286421</v>
+        <v>6500.2864209999998</v>
       </c>
       <c r="G12" s="1">
-        <v>1.805635</v>
+        <v>1.8056350000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>917.694000</v>
+        <v>917.69399999999996</v>
       </c>
       <c r="I12" s="1">
-        <v>-169.364000</v>
+        <v>-169.364</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>6510.422124</v>
+        <v>6510.4221239999997</v>
       </c>
       <c r="L12" s="1">
         <v>1.808451</v>
       </c>
       <c r="M12" s="1">
-        <v>940.348000</v>
+        <v>940.34799999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.692000</v>
+        <v>-119.69199999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>6520.654096</v>
+        <v>6520.6540960000002</v>
       </c>
       <c r="Q12" s="1">
         <v>1.811293</v>
       </c>
       <c r="R12" s="1">
-        <v>946.886000</v>
+        <v>946.88599999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.370000</v>
+        <v>-103.37</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>6531.152915</v>
+        <v>6531.1529149999997</v>
       </c>
       <c r="V12" s="1">
         <v>1.814209</v>
       </c>
       <c r="W12" s="1">
-        <v>953.321000</v>
+        <v>953.32100000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.175400</v>
+        <v>-88.175399999999996</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>6541.742996</v>
+        <v>6541.7429959999999</v>
       </c>
       <c r="AA12" s="1">
         <v>1.817151</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.188000</v>
+        <v>960.18799999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.356500</v>
+        <v>-76.356499999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>6552.259172</v>
       </c>
       <c r="AF12" s="1">
-        <v>1.820072</v>
+        <v>1.8200719999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.813000</v>
+        <v>964.81299999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.044600</v>
+        <v>-74.044600000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>6562.670695</v>
+        <v>6562.6706949999998</v>
       </c>
       <c r="AK12" s="1">
         <v>1.822964</v>
       </c>
       <c r="AL12" s="1">
-        <v>971.865000</v>
+        <v>971.86500000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-78.560400</v>
+        <v>-78.560400000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>6573.415034</v>
+        <v>6573.4150339999997</v>
       </c>
       <c r="AP12" s="1">
         <v>1.825949</v>
       </c>
       <c r="AQ12" s="1">
-        <v>979.791000</v>
+        <v>979.79100000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-89.904500</v>
+        <v>-89.904499999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>6584.104347</v>
+        <v>6584.1043470000004</v>
       </c>
       <c r="AU12" s="1">
         <v>1.828918</v>
       </c>
       <c r="AV12" s="1">
-        <v>989.381000</v>
+        <v>989.38099999999997</v>
       </c>
       <c r="AW12" s="1">
-        <v>-107.247000</v>
+        <v>-107.247</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>6595.418092</v>
+        <v>6595.4180919999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>1.832061</v>
+        <v>1.8320609999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>997.425000</v>
+        <v>997.42499999999995</v>
       </c>
       <c r="BB12" s="1">
-        <v>-122.643000</v>
+        <v>-122.643</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>6606.678272</v>
+        <v>6606.6782720000001</v>
       </c>
       <c r="BE12" s="1">
         <v>1.835188</v>
       </c>
       <c r="BF12" s="1">
-        <v>1034.860000</v>
+        <v>1034.8599999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-193.838000</v>
+        <v>-193.83799999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>6617.505902</v>
+        <v>6617.5059019999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>1.838196</v>
+        <v>1.8381959999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1099.550000</v>
+        <v>1099.55</v>
       </c>
       <c r="BL12" s="1">
-        <v>-310.363000</v>
+        <v>-310.363</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>6627.793921</v>
+        <v>6627.7939210000004</v>
       </c>
       <c r="BO12" s="1">
         <v>1.841054</v>
       </c>
       <c r="BP12" s="1">
-        <v>1205.310000</v>
+        <v>1205.31</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-495.428000</v>
+        <v>-495.428</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>6638.297203</v>
+        <v>6638.2972030000001</v>
       </c>
       <c r="BT12" s="1">
         <v>1.843971</v>
       </c>
       <c r="BU12" s="1">
-        <v>1325.730000</v>
+        <v>1325.73</v>
       </c>
       <c r="BV12" s="1">
-        <v>-699.350000</v>
+        <v>-699.35</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>6649.069813</v>
+        <v>6649.0698130000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>1.846964</v>
+        <v>1.8469640000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1460.670000</v>
+        <v>1460.67</v>
       </c>
       <c r="CA12" s="1">
-        <v>-917.286000</v>
+        <v>-917.28599999999994</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>6661.345301</v>
+        <v>6661.3453010000003</v>
       </c>
       <c r="CD12" s="1">
         <v>1.850374</v>
       </c>
       <c r="CE12" s="1">
-        <v>1817.190000</v>
+        <v>1817.19</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1435.000000</v>
+        <v>-1435</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>6490.571735</v>
+        <v>6490.5717350000004</v>
       </c>
       <c r="B13" s="1">
         <v>1.802937</v>
       </c>
       <c r="C13" s="1">
-        <v>899.727000</v>
+        <v>899.72699999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-200.625000</v>
+        <v>-200.625</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>6500.632599</v>
+        <v>6500.6325989999996</v>
       </c>
       <c r="G13" s="1">
         <v>1.805731</v>
       </c>
       <c r="H13" s="1">
-        <v>917.708000</v>
+        <v>917.70799999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.280000</v>
+        <v>-169.28</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>6510.762908</v>
+        <v>6510.7629079999997</v>
       </c>
       <c r="L13" s="1">
-        <v>1.808545</v>
+        <v>1.8085450000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>940.248000</v>
+        <v>940.24800000000005</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.783000</v>
+        <v>-119.783</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>6521.074213</v>
+        <v>6521.0742129999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.811410</v>
+        <v>1.81141</v>
       </c>
       <c r="R13" s="1">
-        <v>946.843000</v>
+        <v>946.84299999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.322000</v>
+        <v>-103.322</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>6531.569057</v>
+        <v>6531.5690569999997</v>
       </c>
       <c r="V13" s="1">
         <v>1.814325</v>
       </c>
       <c r="W13" s="1">
-        <v>953.311000</v>
+        <v>953.31100000000004</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.158600</v>
+        <v>-88.158600000000007</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>6542.016291</v>
+        <v>6542.0162909999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>1.817227</v>
+        <v>1.8172269999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.151000</v>
+        <v>960.15099999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.441100</v>
+        <v>-76.441100000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>6552.519573</v>
+        <v>6552.5195729999996</v>
       </c>
       <c r="AF13" s="1">
         <v>1.820144</v>
       </c>
       <c r="AG13" s="1">
-        <v>964.804000</v>
+        <v>964.80399999999997</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.095300</v>
+        <v>-74.095299999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>6563.018391</v>
+        <v>6563.0183909999996</v>
       </c>
       <c r="AK13" s="1">
         <v>1.823061</v>
       </c>
       <c r="AL13" s="1">
-        <v>971.861000</v>
+        <v>971.86099999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-78.548300</v>
+        <v>-78.548299999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>6573.774665</v>
+        <v>6573.7746649999999</v>
       </c>
       <c r="AP13" s="1">
         <v>1.826049</v>
       </c>
       <c r="AQ13" s="1">
-        <v>979.771000</v>
+        <v>979.77099999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-89.888900</v>
+        <v>-89.888900000000007</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>6584.470362</v>
       </c>
       <c r="AU13" s="1">
-        <v>1.829020</v>
+        <v>1.8290200000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>989.398000</v>
+        <v>989.39800000000002</v>
       </c>
       <c r="AW13" s="1">
-        <v>-107.258000</v>
+        <v>-107.258</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>6596.134283</v>
+        <v>6596.1342830000003</v>
       </c>
       <c r="AZ13" s="1">
-        <v>1.832260</v>
+        <v>1.83226</v>
       </c>
       <c r="BA13" s="1">
-        <v>997.401000</v>
+        <v>997.40099999999995</v>
       </c>
       <c r="BB13" s="1">
-        <v>-122.653000</v>
+        <v>-122.65300000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>6607.039356</v>
+        <v>6607.0393560000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>1.835289</v>
+        <v>1.8352889999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1034.860000</v>
+        <v>1034.8599999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-193.836000</v>
+        <v>-193.83600000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>6617.882366</v>
+        <v>6617.8823659999998</v>
       </c>
       <c r="BJ13" s="1">
         <v>1.838301</v>
       </c>
       <c r="BK13" s="1">
-        <v>1099.540000</v>
+        <v>1099.54</v>
       </c>
       <c r="BL13" s="1">
-        <v>-310.325000</v>
+        <v>-310.32499999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>6628.214065</v>
+        <v>6628.2140650000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>1.841171</v>
+        <v>1.8411709999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1205.320000</v>
+        <v>1205.32</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-495.431000</v>
+        <v>-495.43099999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>6638.724258</v>
+        <v>6638.7242580000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>1.844090</v>
+        <v>1.84409</v>
       </c>
       <c r="BU13" s="1">
-        <v>1325.640000</v>
+        <v>1325.64</v>
       </c>
       <c r="BV13" s="1">
-        <v>-699.481000</v>
+        <v>-699.48099999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>6649.797476</v>
+        <v>6649.7974759999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>1.847166</v>
+        <v>1.8471660000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1460.500000</v>
+        <v>1460.5</v>
       </c>
       <c r="CA13" s="1">
-        <v>-917.308000</v>
+        <v>-917.30799999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>6661.578420</v>
+        <v>6661.5784199999998</v>
       </c>
       <c r="CD13" s="1">
         <v>1.850438</v>
       </c>
       <c r="CE13" s="1">
-        <v>1817.170000</v>
+        <v>1817.17</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1435.370000</v>
+        <v>-1435.37</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>6490.914470</v>
+        <v>6490.9144699999997</v>
       </c>
       <c r="B14" s="1">
         <v>1.803032</v>
       </c>
       <c r="C14" s="1">
-        <v>899.716000</v>
+        <v>899.71600000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-200.745000</v>
+        <v>-200.745</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>6501.124120</v>
+        <v>6501.1241200000004</v>
       </c>
       <c r="G14" s="1">
         <v>1.805868</v>
       </c>
       <c r="H14" s="1">
-        <v>917.129000</v>
+        <v>917.12900000000002</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.593000</v>
+        <v>-169.59299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>6511.165628</v>
+        <v>6511.1656279999997</v>
       </c>
       <c r="L14" s="1">
         <v>1.808657</v>
       </c>
       <c r="M14" s="1">
-        <v>940.315000</v>
+        <v>940.31500000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.909000</v>
+        <v>-119.90900000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>6521.352960</v>
+        <v>6521.3529600000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.811487</v>
+        <v>1.8114870000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>946.850000</v>
+        <v>946.85</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.307000</v>
+        <v>-103.307</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>6531.867649</v>
+        <v>6531.8676489999998</v>
       </c>
       <c r="V14" s="1">
         <v>1.814408</v>
       </c>
       <c r="W14" s="1">
-        <v>953.332000</v>
+        <v>953.33199999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.168500</v>
+        <v>-88.168499999999995</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>6542.362002</v>
+        <v>6542.3620019999998</v>
       </c>
       <c r="AA14" s="1">
         <v>1.817323</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.138000</v>
+        <v>960.13800000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.429300</v>
+        <v>-76.429299999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>6552.860820</v>
+        <v>6552.8608199999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>1.820239</v>
+        <v>1.8202389999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>964.822000</v>
+        <v>964.822</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.058600</v>
+        <v>-74.058599999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>6563.365623</v>
+        <v>6563.3656229999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>1.823157</v>
+        <v>1.8231569999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>971.879000</v>
+        <v>971.87900000000002</v>
       </c>
       <c r="AM14" s="1">
-        <v>-78.571500</v>
+        <v>-78.5715</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>6574.497305</v>
+        <v>6574.4973049999999</v>
       </c>
       <c r="AP14" s="1">
         <v>1.826249</v>
       </c>
       <c r="AQ14" s="1">
-        <v>979.789000</v>
+        <v>979.78899999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-89.894700</v>
+        <v>-89.8947</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>6585.200970</v>
+        <v>6585.2009699999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>1.829222</v>
+        <v>1.8292219999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>989.398000</v>
+        <v>989.39800000000002</v>
       </c>
       <c r="AW14" s="1">
-        <v>-107.248000</v>
+        <v>-107.248</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>6596.491402</v>
+        <v>6596.4914019999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1.832359</v>
+        <v>1.8323590000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>997.400000</v>
+        <v>997.4</v>
       </c>
       <c r="BB14" s="1">
-        <v>-122.663000</v>
+        <v>-122.663</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>6607.398924</v>
+        <v>6607.3989240000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>1.835389</v>
+        <v>1.8353889999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1034.830000</v>
+        <v>1034.83</v>
       </c>
       <c r="BG14" s="1">
-        <v>-193.840000</v>
+        <v>-193.84</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>6618.256854</v>
+        <v>6618.2568540000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>1.838405</v>
+        <v>1.8384050000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1099.510000</v>
+        <v>1099.51</v>
       </c>
       <c r="BL14" s="1">
-        <v>-310.313000</v>
+        <v>-310.31299999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>6628.923344</v>
+        <v>6628.9233439999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>1.841368</v>
+        <v>1.8413679999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1205.350000</v>
+        <v>1205.3499999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-495.421000</v>
+        <v>-495.42099999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>6639.158754</v>
@@ -3775,180 +4191,180 @@
         <v>1.844211</v>
       </c>
       <c r="BU14" s="1">
-        <v>1325.530000</v>
+        <v>1325.53</v>
       </c>
       <c r="BV14" s="1">
-        <v>-699.668000</v>
+        <v>-699.66800000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>6649.914003</v>
+        <v>6649.9140029999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>1.847198</v>
+        <v>1.8471979999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1460.590000</v>
+        <v>1460.59</v>
       </c>
       <c r="CA14" s="1">
-        <v>-917.243000</v>
+        <v>-917.24300000000005</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>6662.096243</v>
       </c>
       <c r="CD14" s="1">
-        <v>1.850582</v>
+        <v>1.8505819999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1817.670000</v>
+        <v>1817.67</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1436.550000</v>
+        <v>-1436.55</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>6491.335606</v>
+        <v>6491.3356059999996</v>
       </c>
       <c r="B15" s="1">
-        <v>1.803149</v>
+        <v>1.8031489999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>899.666000</v>
+        <v>899.66600000000005</v>
       </c>
       <c r="D15" s="1">
-        <v>-200.592000</v>
+        <v>-200.59200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>6501.319576</v>
+        <v>6501.3195759999999</v>
       </c>
       <c r="G15" s="1">
         <v>1.805922</v>
       </c>
       <c r="H15" s="1">
-        <v>917.337000</v>
+        <v>917.33699999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-169.537000</v>
+        <v>-169.53700000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>6511.456283</v>
+        <v>6511.4562830000004</v>
       </c>
       <c r="L15" s="1">
         <v>1.808738</v>
       </c>
       <c r="M15" s="1">
-        <v>940.370000</v>
+        <v>940.37</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.584000</v>
+        <v>-119.584</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>6521.703845</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.811584</v>
+        <v>1.8115840000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>946.889000</v>
+        <v>946.88900000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.274000</v>
+        <v>-103.274</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>6532.210880</v>
+        <v>6532.2108799999996</v>
       </c>
       <c r="V15" s="1">
         <v>1.814503</v>
       </c>
       <c r="W15" s="1">
-        <v>953.346000</v>
+        <v>953.346</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.181800</v>
+        <v>-88.181799999999996</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>6542.711216</v>
+        <v>6542.7112159999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>1.817420</v>
+        <v>1.81742</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.238000</v>
+        <v>960.23800000000006</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.378300</v>
+        <v>-76.378299999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>6553.548804</v>
       </c>
       <c r="AF15" s="1">
-        <v>1.820430</v>
+        <v>1.82043</v>
       </c>
       <c r="AG15" s="1">
-        <v>964.821000</v>
+        <v>964.82100000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.067700</v>
+        <v>-74.067700000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>6564.064950</v>
+        <v>6564.06495</v>
       </c>
       <c r="AK15" s="1">
-        <v>1.823351</v>
+        <v>1.8233509999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>971.872000</v>
+        <v>971.87199999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-78.562300</v>
+        <v>-78.562299999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>6574.857399</v>
+        <v>6574.8573990000004</v>
       </c>
       <c r="AP15" s="1">
         <v>1.826349</v>
       </c>
       <c r="AQ15" s="1">
-        <v>979.778000</v>
+        <v>979.77800000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-89.906500</v>
+        <v>-89.906499999999994</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>6585.590862</v>
@@ -3957,28 +4373,28 @@
         <v>1.829331</v>
       </c>
       <c r="AV15" s="1">
-        <v>989.378000</v>
+        <v>989.37800000000004</v>
       </c>
       <c r="AW15" s="1">
-        <v>-107.247000</v>
+        <v>-107.247</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>6596.850010</v>
+        <v>6596.8500100000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.832458</v>
+        <v>1.8324579999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>997.423000</v>
+        <v>997.423</v>
       </c>
       <c r="BB15" s="1">
-        <v>-122.648000</v>
+        <v>-122.648</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>6608.067532</v>
@@ -3987,542 +4403,542 @@
         <v>1.835574</v>
       </c>
       <c r="BF15" s="1">
-        <v>1034.870000</v>
+        <v>1034.8699999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-193.832000</v>
+        <v>-193.83199999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>6618.938349</v>
       </c>
       <c r="BJ15" s="1">
-        <v>1.838594</v>
+        <v>1.8385940000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1099.490000</v>
+        <v>1099.49</v>
       </c>
       <c r="BL15" s="1">
-        <v>-310.355000</v>
+        <v>-310.35500000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>6629.033423</v>
+        <v>6629.0334229999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>1.841398</v>
+        <v>1.8413980000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1205.310000</v>
+        <v>1205.31</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-495.441000</v>
+        <v>-495.44099999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>6639.564017</v>
+        <v>6639.5640169999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>1.844323</v>
+        <v>1.8443229999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1325.450000</v>
+        <v>1325.45</v>
       </c>
       <c r="BV15" s="1">
-        <v>-699.720000</v>
+        <v>-699.72</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>6650.361892</v>
+        <v>6650.3618919999999</v>
       </c>
       <c r="BY15" s="1">
         <v>1.847323</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1460.570000</v>
+        <v>1460.57</v>
       </c>
       <c r="CA15" s="1">
-        <v>-917.201000</v>
+        <v>-917.20100000000002</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>6662.614068</v>
+        <v>6662.6140679999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>1.850726</v>
+        <v>1.8507260000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1817.330000</v>
+        <v>1817.33</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1435.950000</v>
+        <v>-1435.95</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>6491.615348</v>
+        <v>6491.6153480000003</v>
       </c>
       <c r="B16" s="1">
         <v>1.803226</v>
       </c>
       <c r="C16" s="1">
-        <v>899.763000</v>
+        <v>899.76300000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-200.659000</v>
+        <v>-200.65899999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>6501.653848</v>
+        <v>6501.6538479999999</v>
       </c>
       <c r="G16" s="1">
-        <v>1.806015</v>
+        <v>1.8060149999999999</v>
       </c>
       <c r="H16" s="1">
-        <v>917.763000</v>
+        <v>917.76300000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-169.554000</v>
+        <v>-169.554</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>6511.801994</v>
+        <v>6511.8019940000004</v>
       </c>
       <c r="L16" s="1">
-        <v>1.808834</v>
+        <v>1.8088340000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>940.208000</v>
+        <v>940.20799999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.779000</v>
+        <v>-119.779</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>6522.053806</v>
+        <v>6522.0538059999999</v>
       </c>
       <c r="Q16" s="1">
         <v>1.811682</v>
       </c>
       <c r="R16" s="1">
-        <v>946.909000</v>
+        <v>946.90899999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.322000</v>
+        <v>-103.322</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>6532.553616</v>
+        <v>6532.5536160000001</v>
       </c>
       <c r="V16" s="1">
-        <v>1.814598</v>
+        <v>1.8145979999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>953.306000</v>
+        <v>953.30600000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.139600</v>
+        <v>-88.139600000000002</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>6543.411537</v>
       </c>
       <c r="AA16" s="1">
-        <v>1.817614</v>
+        <v>1.8176140000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.304000</v>
+        <v>960.30399999999997</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.310900</v>
+        <v>-76.310900000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>6553.894516</v>
+        <v>6553.8945160000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>1.820526</v>
+        <v>1.8205260000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>964.813000</v>
+        <v>964.81299999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.053900</v>
+        <v>-74.053899999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>6564.413669</v>
+        <v>6564.4136689999996</v>
       </c>
       <c r="AK16" s="1">
         <v>1.823448</v>
       </c>
       <c r="AL16" s="1">
-        <v>971.879000</v>
+        <v>971.87900000000002</v>
       </c>
       <c r="AM16" s="1">
-        <v>-78.554000</v>
+        <v>-78.554000000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>6575.219975</v>
       </c>
       <c r="AP16" s="1">
-        <v>1.826450</v>
+        <v>1.8264499999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>979.801000</v>
+        <v>979.80100000000004</v>
       </c>
       <c r="AR16" s="1">
-        <v>-89.905500</v>
+        <v>-89.905500000000004</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>6585.956408</v>
       </c>
       <c r="AU16" s="1">
-        <v>1.829432</v>
+        <v>1.8294319999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>989.393000</v>
+        <v>989.39300000000003</v>
       </c>
       <c r="AW16" s="1">
-        <v>-107.268000</v>
+        <v>-107.268</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>6597.513163</v>
+        <v>6597.5131629999996</v>
       </c>
       <c r="AZ16" s="1">
         <v>1.832643</v>
       </c>
       <c r="BA16" s="1">
-        <v>997.417000</v>
+        <v>997.41700000000003</v>
       </c>
       <c r="BB16" s="1">
-        <v>-122.667000</v>
+        <v>-122.667</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>6608.519386</v>
+        <v>6608.5193859999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>1.835700</v>
+        <v>1.8357000000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1034.880000</v>
+        <v>1034.8800000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-193.834000</v>
+        <v>-193.834</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>6619.049949</v>
+        <v>6619.0499490000002</v>
       </c>
       <c r="BJ16" s="1">
         <v>1.838625</v>
       </c>
       <c r="BK16" s="1">
-        <v>1099.510000</v>
+        <v>1099.51</v>
       </c>
       <c r="BL16" s="1">
-        <v>-310.330000</v>
+        <v>-310.33</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>6629.455055</v>
+        <v>6629.4550550000004</v>
       </c>
       <c r="BO16" s="1">
         <v>1.841515</v>
       </c>
       <c r="BP16" s="1">
-        <v>1205.340000</v>
+        <v>1205.3399999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-495.420000</v>
+        <v>-495.42</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>6639.996001</v>
+        <v>6639.9960010000004</v>
       </c>
       <c r="BT16" s="1">
-        <v>1.844443</v>
+        <v>1.8444430000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1325.300000</v>
+        <v>1325.3</v>
       </c>
       <c r="BV16" s="1">
-        <v>-699.638000</v>
+        <v>-699.63800000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>6650.796386</v>
       </c>
       <c r="BY16" s="1">
-        <v>1.847443</v>
+        <v>1.8474429999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1460.570000</v>
+        <v>1460.57</v>
       </c>
       <c r="CA16" s="1">
-        <v>-917.175000</v>
+        <v>-917.17499999999995</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>6663.165618</v>
       </c>
       <c r="CD16" s="1">
-        <v>1.850879</v>
+        <v>1.8508789999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1817.080000</v>
+        <v>1817.08</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1435.620000</v>
+        <v>-1435.62</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>6491.955111</v>
+        <v>6491.9551110000002</v>
       </c>
       <c r="B17" s="1">
         <v>1.803321</v>
       </c>
       <c r="C17" s="1">
-        <v>899.869000</v>
+        <v>899.86900000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-200.804000</v>
+        <v>-200.804</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>6502.007496</v>
+        <v>6502.0074960000002</v>
       </c>
       <c r="G17" s="1">
-        <v>1.806113</v>
+        <v>1.8061130000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>917.356000</v>
+        <v>917.35599999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-169.486000</v>
+        <v>-169.48599999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>6512.146714</v>
+        <v>6512.1467140000004</v>
       </c>
       <c r="L17" s="1">
-        <v>1.808930</v>
+        <v>1.8089299999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>940.231000</v>
+        <v>940.23099999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.843000</v>
+        <v>-119.843</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>6522.749196</v>
+        <v>6522.7491959999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>1.811875</v>
+        <v>1.8118749999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>946.884000</v>
+        <v>946.88400000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.351000</v>
+        <v>-103.351</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>6533.242101</v>
+        <v>6533.2421009999998</v>
       </c>
       <c r="V17" s="1">
         <v>1.814789</v>
       </c>
       <c r="W17" s="1">
-        <v>953.220000</v>
+        <v>953.22</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.140100</v>
+        <v>-88.140100000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>6543.756752</v>
+        <v>6543.7567520000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>1.817710</v>
+        <v>1.8177099999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.182000</v>
+        <v>960.18200000000002</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.312900</v>
+        <v>-76.312899999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>6554.237250</v>
+        <v>6554.2372500000001</v>
       </c>
       <c r="AF17" s="1">
         <v>1.820621</v>
       </c>
       <c r="AG17" s="1">
-        <v>964.799000</v>
+        <v>964.79899999999998</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.049500</v>
+        <v>-74.049499999999995</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>6564.759844</v>
+        <v>6564.7598440000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>1.823544</v>
+        <v>1.8235440000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>971.868000</v>
+        <v>971.86800000000005</v>
       </c>
       <c r="AM17" s="1">
-        <v>-78.567100</v>
+        <v>-78.567099999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>6575.882417</v>
+        <v>6575.8824169999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>1.826634</v>
+        <v>1.8266340000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>979.766000</v>
+        <v>979.76599999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-89.899600</v>
+        <v>-89.899600000000007</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>6586.623497</v>
+        <v>6586.6234969999996</v>
       </c>
       <c r="AU17" s="1">
         <v>1.829618</v>
       </c>
       <c r="AV17" s="1">
-        <v>989.379000</v>
+        <v>989.37900000000002</v>
       </c>
       <c r="AW17" s="1">
-        <v>-107.261000</v>
+        <v>-107.261</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>6597.961556</v>
+        <v>6597.9615560000002</v>
       </c>
       <c r="AZ17" s="1">
         <v>1.832767</v>
       </c>
       <c r="BA17" s="1">
-        <v>997.427000</v>
+        <v>997.42700000000002</v>
       </c>
       <c r="BB17" s="1">
-        <v>-122.645000</v>
+        <v>-122.645</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>6608.879293</v>
       </c>
       <c r="BE17" s="1">
-        <v>1.835800</v>
+        <v>1.8358000000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1034.870000</v>
+        <v>1034.8699999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-193.850000</v>
+        <v>-193.85</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>6619.415500</v>
+        <v>6619.4155000000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>1.838727</v>
       </c>
       <c r="BK17" s="1">
-        <v>1099.490000</v>
+        <v>1099.49</v>
       </c>
       <c r="BL17" s="1">
-        <v>-310.355000</v>
+        <v>-310.35500000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>6629.851842</v>
@@ -4531,347 +4947,347 @@
         <v>1.841626</v>
       </c>
       <c r="BP17" s="1">
-        <v>1205.360000</v>
+        <v>1205.3599999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-495.445000</v>
+        <v>-495.44499999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>6640.408176</v>
+        <v>6640.4081759999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>1.844558</v>
+        <v>1.8445579999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1325.120000</v>
+        <v>1325.12</v>
       </c>
       <c r="BV17" s="1">
-        <v>-699.596000</v>
+        <v>-699.596</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>6651.216994</v>
+        <v>6651.2169940000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>1.847560</v>
+        <v>1.8475600000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1460.580000</v>
+        <v>1460.58</v>
       </c>
       <c r="CA17" s="1">
-        <v>-917.367000</v>
+        <v>-917.36699999999996</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>6663.694851</v>
+        <v>6663.6948510000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>1.851026</v>
+        <v>1.8510260000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1817.590000</v>
+        <v>1817.59</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1436.710000</v>
+        <v>-1436.71</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>6492.298307</v>
       </c>
       <c r="B18" s="1">
-        <v>1.803416</v>
+        <v>1.8034159999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>899.730000</v>
+        <v>899.73</v>
       </c>
       <c r="D18" s="1">
-        <v>-200.726000</v>
+        <v>-200.726</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>6502.701398</v>
+        <v>6502.7013980000002</v>
       </c>
       <c r="G18" s="1">
         <v>1.806306</v>
       </c>
       <c r="H18" s="1">
-        <v>917.777000</v>
+        <v>917.77700000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-169.307000</v>
+        <v>-169.30699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>6512.837145</v>
+        <v>6512.8371450000004</v>
       </c>
       <c r="L18" s="1">
         <v>1.809121</v>
       </c>
       <c r="M18" s="1">
-        <v>940.354000</v>
+        <v>940.35400000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.661000</v>
+        <v>-119.661</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>6523.097387</v>
+        <v>6523.0973869999998</v>
       </c>
       <c r="Q18" s="1">
         <v>1.811971</v>
       </c>
       <c r="R18" s="1">
-        <v>946.883000</v>
+        <v>946.88300000000004</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.343000</v>
+        <v>-103.343</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>6533.586014</v>
+        <v>6533.5860140000004</v>
       </c>
       <c r="V18" s="1">
-        <v>1.814885</v>
+        <v>1.8148850000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>953.333000</v>
+        <v>953.33299999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.197100</v>
+        <v>-88.197100000000006</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>6544.107952</v>
+        <v>6544.1079520000003</v>
       </c>
       <c r="AA18" s="1">
-        <v>1.817808</v>
+        <v>1.8178080000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.026000</v>
+        <v>960.02599999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.372300</v>
+        <v>-76.372299999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>6554.883507</v>
+        <v>6554.8835069999996</v>
       </c>
       <c r="AF18" s="1">
-        <v>1.820801</v>
+        <v>1.8208009999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>964.839000</v>
+        <v>964.83900000000006</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.056100</v>
+        <v>-74.056100000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>6565.405635</v>
+        <v>6565.4056350000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>1.823724</v>
+        <v>1.8237239999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>971.842000</v>
+        <v>971.84199999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-78.575700</v>
+        <v>-78.575699999999998</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>6576.327541</v>
+        <v>6576.3275409999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>1.826758</v>
+        <v>1.8267580000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>979.775000</v>
+        <v>979.77499999999998</v>
       </c>
       <c r="AR18" s="1">
-        <v>-89.890700</v>
+        <v>-89.890699999999995</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>6587.082311</v>
+        <v>6587.0823110000001</v>
       </c>
       <c r="AU18" s="1">
         <v>1.829745</v>
       </c>
       <c r="AV18" s="1">
-        <v>989.384000</v>
+        <v>989.38400000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-107.250000</v>
+        <v>-107.25</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>6598.319689</v>
+        <v>6598.3196889999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>1.832867</v>
       </c>
       <c r="BA18" s="1">
-        <v>997.426000</v>
+        <v>997.42600000000004</v>
       </c>
       <c r="BB18" s="1">
-        <v>-122.642000</v>
+        <v>-122.642</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>6609.241588</v>
+        <v>6609.2415879999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>1.835900</v>
+        <v>1.8359000000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1034.890000</v>
+        <v>1034.8900000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-193.819000</v>
+        <v>-193.81899999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>6619.794940</v>
+        <v>6619.7949399999998</v>
       </c>
       <c r="BJ18" s="1">
         <v>1.838832</v>
       </c>
       <c r="BK18" s="1">
-        <v>1099.530000</v>
+        <v>1099.53</v>
       </c>
       <c r="BL18" s="1">
-        <v>-310.355000</v>
+        <v>-310.35500000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>6630.273422</v>
+        <v>6630.2734220000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>1.841743</v>
+        <v>1.8417429999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1205.330000</v>
+        <v>1205.33</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-495.443000</v>
+        <v>-495.44299999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>6640.835760</v>
+        <v>6640.8357599999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>1.844677</v>
+        <v>1.8446769999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1325.090000</v>
+        <v>1325.09</v>
       </c>
       <c r="BV18" s="1">
-        <v>-699.467000</v>
+        <v>-699.46699999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>6651.637106</v>
+        <v>6651.6371060000001</v>
       </c>
       <c r="BY18" s="1">
         <v>1.847677</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1460.620000</v>
+        <v>1460.62</v>
       </c>
       <c r="CA18" s="1">
-        <v>-917.170000</v>
+        <v>-917.17</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>6664.215650</v>
+        <v>6664.2156500000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>1.851171</v>
+        <v>1.8511709999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1818.880000</v>
+        <v>1818.88</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1435.280000</v>
+        <v>-1435.28</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>6492.978323</v>
+        <v>6492.9783230000003</v>
       </c>
       <c r="B19" s="1">
-        <v>1.803605</v>
+        <v>1.8036049999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>899.716000</v>
+        <v>899.71600000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-200.731000</v>
+        <v>-200.73099999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>6503.043671</v>
+        <v>6503.0436710000004</v>
       </c>
       <c r="G19" s="1">
-        <v>1.806401</v>
+        <v>1.8064009999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>917.488000</v>
+        <v>917.48800000000006</v>
       </c>
       <c r="I19" s="1">
-        <v>-169.311000</v>
+        <v>-169.31100000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>6513.184878</v>
@@ -4880,118 +5296,118 @@
         <v>1.809218</v>
       </c>
       <c r="M19" s="1">
-        <v>940.422000</v>
+        <v>940.42200000000003</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.833000</v>
+        <v>-119.833</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>6523.445114</v>
+        <v>6523.4451140000001</v>
       </c>
       <c r="Q19" s="1">
         <v>1.812068</v>
       </c>
       <c r="R19" s="1">
-        <v>946.846000</v>
+        <v>946.846</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.324000</v>
+        <v>-103.324</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>6533.929022</v>
+        <v>6533.9290220000003</v>
       </c>
       <c r="V19" s="1">
-        <v>1.814980</v>
+        <v>1.81498</v>
       </c>
       <c r="W19" s="1">
-        <v>953.273000</v>
+        <v>953.27300000000002</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.125900</v>
+        <v>-88.125900000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>6544.764661</v>
+        <v>6544.7646610000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>1.817990</v>
+        <v>1.81799</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.184000</v>
+        <v>960.18399999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.334500</v>
+        <v>-76.334500000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>6555.268402</v>
+        <v>6555.2684019999997</v>
       </c>
       <c r="AF19" s="1">
         <v>1.820908</v>
       </c>
       <c r="AG19" s="1">
-        <v>964.822000</v>
+        <v>964.822</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.053000</v>
+        <v>-74.052999999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>6565.804946</v>
+        <v>6565.8049460000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>1.823835</v>
+        <v>1.8238350000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>971.856000</v>
+        <v>971.85599999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-78.546400</v>
+        <v>-78.546400000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>6576.689628</v>
+        <v>6576.6896280000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>1.826858</v>
+        <v>1.8268580000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>979.776000</v>
+        <v>979.77599999999995</v>
       </c>
       <c r="AR19" s="1">
-        <v>-89.911400</v>
+        <v>-89.9114</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>6587.445367</v>
+        <v>6587.4453670000003</v>
       </c>
       <c r="AU19" s="1">
-        <v>1.829846</v>
+        <v>1.8298460000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>989.390000</v>
+        <v>989.39</v>
       </c>
       <c r="AW19" s="1">
-        <v>-107.252000</v>
+        <v>-107.252</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>6598.680359</v>
@@ -5000,270 +5416,270 @@
         <v>1.832967</v>
       </c>
       <c r="BA19" s="1">
-        <v>997.408000</v>
+        <v>997.40800000000002</v>
       </c>
       <c r="BB19" s="1">
-        <v>-122.652000</v>
+        <v>-122.652</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>6609.654729</v>
+        <v>6609.6547289999999</v>
       </c>
       <c r="BE19" s="1">
         <v>1.836015</v>
       </c>
       <c r="BF19" s="1">
-        <v>1034.870000</v>
+        <v>1034.8699999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-193.824000</v>
+        <v>-193.82400000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>6620.207611</v>
+        <v>6620.2076109999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>1.838947</v>
+        <v>1.8389470000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1099.500000</v>
+        <v>1099.5</v>
       </c>
       <c r="BL19" s="1">
-        <v>-310.347000</v>
+        <v>-310.34699999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>6630.670719</v>
+        <v>6630.6707189999997</v>
       </c>
       <c r="BO19" s="1">
         <v>1.841853</v>
       </c>
       <c r="BP19" s="1">
-        <v>1205.340000</v>
+        <v>1205.3399999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-495.425000</v>
+        <v>-495.42500000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>6641.266752</v>
+        <v>6641.2667520000005</v>
       </c>
       <c r="BT19" s="1">
-        <v>1.844796</v>
+        <v>1.8447960000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1325.090000</v>
+        <v>1325.09</v>
       </c>
       <c r="BV19" s="1">
-        <v>-699.323000</v>
+        <v>-699.32299999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>6652.063664</v>
+        <v>6652.0636640000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>1.847795</v>
+        <v>1.8477950000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1460.610000</v>
+        <v>1460.61</v>
       </c>
       <c r="CA19" s="1">
-        <v>-917.293000</v>
+        <v>-917.29300000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>6664.753828</v>
+        <v>6664.7538279999999</v>
       </c>
       <c r="CD19" s="1">
         <v>1.851321</v>
       </c>
       <c r="CE19" s="1">
-        <v>1817.140000</v>
+        <v>1817.14</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1435.160000</v>
+        <v>-1435.16</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>6493.326018</v>
+        <v>6493.3260179999997</v>
       </c>
       <c r="B20" s="1">
-        <v>1.803702</v>
+        <v>1.8037019999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>899.658000</v>
+        <v>899.65800000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-200.653000</v>
+        <v>-200.65299999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>6503.388691</v>
+        <v>6503.3886910000001</v>
       </c>
       <c r="G20" s="1">
         <v>1.806497</v>
       </c>
       <c r="H20" s="1">
-        <v>917.643000</v>
+        <v>917.64300000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-169.172000</v>
+        <v>-169.172</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>6513.531048</v>
+        <v>6513.5310479999998</v>
       </c>
       <c r="L20" s="1">
-        <v>1.809314</v>
+        <v>1.8093140000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>940.498000</v>
+        <v>940.49800000000005</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.853000</v>
+        <v>-119.85299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>6524.096827</v>
+        <v>6524.0968270000003</v>
       </c>
       <c r="Q20" s="1">
         <v>1.812249</v>
       </c>
       <c r="R20" s="1">
-        <v>946.891000</v>
+        <v>946.89099999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.295000</v>
+        <v>-103.295</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>6534.580764</v>
+        <v>6534.5807640000003</v>
       </c>
       <c r="V20" s="1">
         <v>1.815161</v>
       </c>
       <c r="W20" s="1">
-        <v>953.299000</v>
+        <v>953.29899999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.171600</v>
+        <v>-88.171599999999998</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>6545.153486</v>
+        <v>6545.1534860000002</v>
       </c>
       <c r="AA20" s="1">
         <v>1.818098</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.156000</v>
+        <v>960.15599999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.419200</v>
+        <v>-76.419200000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>6555.613153</v>
+        <v>6555.6131530000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.821004</v>
+        <v>1.8210040000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>964.800000</v>
+        <v>964.8</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.057900</v>
+        <v>-74.057900000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>6566.157570</v>
+        <v>6566.1575700000003</v>
       </c>
       <c r="AK20" s="1">
         <v>1.823933</v>
       </c>
       <c r="AL20" s="1">
-        <v>971.877000</v>
+        <v>971.87699999999995</v>
       </c>
       <c r="AM20" s="1">
-        <v>-78.583100</v>
+        <v>-78.583100000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>6577.050709</v>
+        <v>6577.0507090000001</v>
       </c>
       <c r="AP20" s="1">
         <v>1.826959</v>
       </c>
       <c r="AQ20" s="1">
-        <v>979.760000</v>
+        <v>979.76</v>
       </c>
       <c r="AR20" s="1">
-        <v>-89.888700</v>
+        <v>-89.8887</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>6587.867493</v>
+        <v>6587.8674929999997</v>
       </c>
       <c r="AU20" s="1">
         <v>1.829963</v>
       </c>
       <c r="AV20" s="1">
-        <v>989.407000</v>
+        <v>989.40700000000004</v>
       </c>
       <c r="AW20" s="1">
-        <v>-107.307000</v>
+        <v>-107.307</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>6599.100886</v>
+        <v>6599.1008860000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1.833084</v>
+        <v>1.8330839999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>997.415000</v>
+        <v>997.41499999999996</v>
       </c>
       <c r="BB20" s="1">
-        <v>-122.645000</v>
+        <v>-122.645</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>6609.962571</v>
@@ -5272,392 +5688,392 @@
         <v>1.836101</v>
       </c>
       <c r="BF20" s="1">
-        <v>1034.890000</v>
+        <v>1034.8900000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-193.828000</v>
+        <v>-193.828</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>6620.566218</v>
+        <v>6620.5662179999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>1.839046</v>
       </c>
       <c r="BK20" s="1">
-        <v>1099.490000</v>
+        <v>1099.49</v>
       </c>
       <c r="BL20" s="1">
-        <v>-310.368000</v>
+        <v>-310.36799999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>6631.094798</v>
+        <v>6631.0947980000001</v>
       </c>
       <c r="BO20" s="1">
         <v>1.841971</v>
       </c>
       <c r="BP20" s="1">
-        <v>1205.350000</v>
+        <v>1205.3499999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-495.439000</v>
+        <v>-495.43900000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>6641.677439</v>
       </c>
       <c r="BT20" s="1">
-        <v>1.844910</v>
+        <v>1.84491</v>
       </c>
       <c r="BU20" s="1">
-        <v>1325.130000</v>
+        <v>1325.13</v>
       </c>
       <c r="BV20" s="1">
-        <v>-699.226000</v>
+        <v>-699.226</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>6652.481298</v>
+        <v>6652.4812979999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>1.847911</v>
+        <v>1.8479110000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1460.470000</v>
+        <v>1460.47</v>
       </c>
       <c r="CA20" s="1">
-        <v>-917.306000</v>
+        <v>-917.30600000000004</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>6665.294975</v>
+        <v>6665.2949749999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>1.851471</v>
+        <v>1.8514710000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1818.190000</v>
+        <v>1818.19</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1436.760000</v>
+        <v>-1436.76</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>6493.664787</v>
+        <v>6493.6647869999997</v>
       </c>
       <c r="B21" s="1">
         <v>1.803796</v>
       </c>
       <c r="C21" s="1">
-        <v>899.813000</v>
+        <v>899.81299999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-200.604000</v>
+        <v>-200.60400000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>6504.035638</v>
+        <v>6504.0356380000003</v>
       </c>
       <c r="G21" s="1">
-        <v>1.806677</v>
+        <v>1.8066770000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>917.318000</v>
+        <v>917.31799999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.509000</v>
+        <v>-169.50899999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>6514.197176</v>
+        <v>6514.1971759999997</v>
       </c>
       <c r="L21" s="1">
         <v>1.809499</v>
       </c>
       <c r="M21" s="1">
-        <v>940.191000</v>
+        <v>940.19100000000003</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.679000</v>
+        <v>-119.679</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>6524.492668</v>
+        <v>6524.4926679999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.812359</v>
+        <v>1.8123590000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>946.884000</v>
+        <v>946.88400000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.312000</v>
+        <v>-103.312</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>6534.958221</v>
+        <v>6534.9582209999999</v>
       </c>
       <c r="V21" s="1">
         <v>1.815266</v>
       </c>
       <c r="W21" s="1">
-        <v>953.329000</v>
+        <v>953.32899999999995</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.199600</v>
+        <v>-88.199600000000004</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>6545.503695</v>
+        <v>6545.5036950000003</v>
       </c>
       <c r="AA21" s="1">
         <v>1.818195</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.182000</v>
+        <v>960.18200000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.338400</v>
+        <v>-76.338399999999993</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>6555.957344</v>
+        <v>6555.9573440000004</v>
       </c>
       <c r="AF21" s="1">
         <v>1.821099</v>
       </c>
       <c r="AG21" s="1">
-        <v>964.834000</v>
+        <v>964.83399999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.057600</v>
+        <v>-74.057599999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>6566.505762</v>
+        <v>6566.5057619999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>1.824029</v>
+        <v>1.8240289999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>971.858000</v>
+        <v>971.85799999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-78.568900</v>
+        <v>-78.568899999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>6577.461892</v>
+        <v>6577.4618920000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>1.827073</v>
+        <v>1.8270729999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>979.778000</v>
+        <v>979.77800000000002</v>
       </c>
       <c r="AR21" s="1">
-        <v>-89.908200</v>
+        <v>-89.908199999999994</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>6588.406149</v>
+        <v>6588.4061490000004</v>
       </c>
       <c r="AU21" s="1">
-        <v>1.830113</v>
+        <v>1.8301130000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>989.405000</v>
+        <v>989.40499999999997</v>
       </c>
       <c r="AW21" s="1">
-        <v>-107.279000</v>
+        <v>-107.279</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>6599.399483</v>
+        <v>6599.3994830000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>1.833167</v>
       </c>
       <c r="BA21" s="1">
-        <v>997.397000</v>
+        <v>997.39700000000005</v>
       </c>
       <c r="BB21" s="1">
-        <v>-122.654000</v>
+        <v>-122.654</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>6610.324825</v>
+        <v>6610.3248249999997</v>
       </c>
       <c r="BE21" s="1">
         <v>1.836201</v>
       </c>
       <c r="BF21" s="1">
-        <v>1034.860000</v>
+        <v>1034.8599999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-193.828000</v>
+        <v>-193.828</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>6620.945168</v>
+        <v>6620.9451680000002</v>
       </c>
       <c r="BJ21" s="1">
         <v>1.839151</v>
       </c>
       <c r="BK21" s="1">
-        <v>1099.520000</v>
+        <v>1099.52</v>
       </c>
       <c r="BL21" s="1">
-        <v>-310.320000</v>
+        <v>-310.32</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>6631.491132</v>
+        <v>6631.4911320000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>1.842081</v>
+        <v>1.8420810000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1205.320000</v>
+        <v>1205.32</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-495.421000</v>
+        <v>-495.42099999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>6642.107502</v>
+        <v>6642.1075019999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>1.845030</v>
+        <v>1.8450299999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1325.210000</v>
+        <v>1325.21</v>
       </c>
       <c r="BV21" s="1">
-        <v>-699.098000</v>
+        <v>-699.09799999999996</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>6652.926240</v>
+        <v>6652.9262399999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>1.848035</v>
+        <v>1.8480350000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1460.560000</v>
+        <v>1460.56</v>
       </c>
       <c r="CA21" s="1">
-        <v>-917.233000</v>
+        <v>-917.23299999999995</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>6665.834126</v>
+        <v>6665.8341259999997</v>
       </c>
       <c r="CD21" s="1">
         <v>1.851621</v>
       </c>
       <c r="CE21" s="1">
-        <v>1818.340000</v>
+        <v>1818.34</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1434.840000</v>
+        <v>-1434.84</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>6494.319505</v>
+        <v>6494.3195050000004</v>
       </c>
       <c r="B22" s="1">
-        <v>1.803978</v>
+        <v>1.8039780000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>899.653000</v>
+        <v>899.65300000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>-200.616000</v>
+        <v>-200.61600000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>6504.423012</v>
+        <v>6504.4230120000002</v>
       </c>
       <c r="G22" s="1">
-        <v>1.806784</v>
+        <v>1.8067839999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>917.596000</v>
+        <v>917.596</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.213000</v>
+        <v>-169.21299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>6514.566695</v>
+        <v>6514.5666950000004</v>
       </c>
       <c r="L22" s="1">
-        <v>1.809602</v>
+        <v>1.8096019999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>940.284000</v>
+        <v>940.28399999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.942000</v>
+        <v>-119.94199999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>6524.843801</v>
@@ -5666,88 +6082,88 @@
         <v>1.812457</v>
       </c>
       <c r="R22" s="1">
-        <v>946.929000</v>
+        <v>946.92899999999997</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.341000</v>
+        <v>-103.34099999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>6535.303437</v>
+        <v>6535.3034369999996</v>
       </c>
       <c r="V22" s="1">
-        <v>1.815362</v>
+        <v>1.8153619999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>953.310000</v>
+        <v>953.31</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.121900</v>
+        <v>-88.121899999999997</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>6545.851712</v>
+        <v>6545.8517119999997</v>
       </c>
       <c r="AA22" s="1">
         <v>1.818292</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.185000</v>
+        <v>960.18499999999995</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.362900</v>
+        <v>-76.362899999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>6556.376496</v>
+        <v>6556.3764959999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.821216</v>
+        <v>1.8212159999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>964.814000</v>
+        <v>964.81399999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.030900</v>
+        <v>-74.030900000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>6566.919426</v>
+        <v>6566.9194260000004</v>
       </c>
       <c r="AK22" s="1">
         <v>1.824144</v>
       </c>
       <c r="AL22" s="1">
-        <v>971.864000</v>
+        <v>971.86400000000003</v>
       </c>
       <c r="AM22" s="1">
-        <v>-78.567300</v>
+        <v>-78.567300000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>6577.769413</v>
       </c>
       <c r="AP22" s="1">
-        <v>1.827158</v>
+        <v>1.8271580000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>979.763000</v>
+        <v>979.76300000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-89.878800</v>
+        <v>-89.878799999999998</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>6588.816836</v>
@@ -5756,300 +6172,300 @@
         <v>1.830227</v>
       </c>
       <c r="AV22" s="1">
-        <v>989.395000</v>
+        <v>989.39499999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-107.267000</v>
+        <v>-107.267</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>6599.759046</v>
+        <v>6599.7590460000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>1.833266</v>
+        <v>1.8332660000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>997.406000</v>
+        <v>997.40599999999995</v>
       </c>
       <c r="BB22" s="1">
-        <v>-122.621000</v>
+        <v>-122.621</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>6610.685442</v>
       </c>
       <c r="BE22" s="1">
-        <v>1.836302</v>
+        <v>1.8363020000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1034.870000</v>
+        <v>1034.8699999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-193.826000</v>
+        <v>-193.82599999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>6621.649481</v>
+        <v>6621.6494810000004</v>
       </c>
       <c r="BJ22" s="1">
-        <v>1.839347</v>
+        <v>1.8393470000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1099.520000</v>
+        <v>1099.52</v>
       </c>
       <c r="BL22" s="1">
-        <v>-310.351000</v>
+        <v>-310.351</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>6631.910716</v>
+        <v>6631.9107160000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>1.842197</v>
+        <v>1.8421970000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1205.360000</v>
+        <v>1205.3599999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-495.404000</v>
+        <v>-495.404</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>6642.534031</v>
+        <v>6642.5340310000001</v>
       </c>
       <c r="BT22" s="1">
         <v>1.845148</v>
       </c>
       <c r="BU22" s="1">
-        <v>1325.330000</v>
+        <v>1325.33</v>
       </c>
       <c r="BV22" s="1">
-        <v>-699.076000</v>
+        <v>-699.07600000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>6653.348303</v>
+        <v>6653.3483029999998</v>
       </c>
       <c r="BY22" s="1">
         <v>1.848152</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1460.470000</v>
+        <v>1460.47</v>
       </c>
       <c r="CA22" s="1">
-        <v>-917.198000</v>
+        <v>-917.19799999999998</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>6666.375230</v>
+        <v>6666.3752299999996</v>
       </c>
       <c r="CD22" s="1">
-        <v>1.851771</v>
+        <v>1.8517710000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1817.210000</v>
+        <v>1817.21</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1436.060000</v>
+        <v>-1436.06</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>6494.690545</v>
+        <v>6494.6905450000004</v>
       </c>
       <c r="B23" s="1">
         <v>1.804081</v>
       </c>
       <c r="C23" s="1">
-        <v>899.878000</v>
+        <v>899.87800000000004</v>
       </c>
       <c r="D23" s="1">
-        <v>-200.569000</v>
+        <v>-200.56899999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>6504.766771</v>
+        <v>6504.7667709999996</v>
       </c>
       <c r="G23" s="1">
-        <v>1.806880</v>
+        <v>1.80688</v>
       </c>
       <c r="H23" s="1">
-        <v>917.651000</v>
+        <v>917.65099999999995</v>
       </c>
       <c r="I23" s="1">
-        <v>-169.333000</v>
+        <v>-169.333</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>6514.912433</v>
+        <v>6514.9124330000004</v>
       </c>
       <c r="L23" s="1">
         <v>1.809698</v>
       </c>
       <c r="M23" s="1">
-        <v>940.268000</v>
+        <v>940.26800000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.938000</v>
+        <v>-119.938</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>6525.188520</v>
+        <v>6525.1885199999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>1.812552</v>
+        <v>1.8125519999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>946.883000</v>
+        <v>946.88300000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.354000</v>
+        <v>-103.354</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>6535.887754</v>
+        <v>6535.8877540000003</v>
       </c>
       <c r="V23" s="1">
-        <v>1.815524</v>
+        <v>1.8155239999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>953.271000</v>
+        <v>953.27099999999996</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.167700</v>
+        <v>-88.167699999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>6546.266013</v>
+        <v>6546.2660130000004</v>
       </c>
       <c r="AA23" s="1">
-        <v>1.818407</v>
+        <v>1.8184070000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.210000</v>
+        <v>960.21</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.296100</v>
+        <v>-76.296099999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>6556.647279</v>
+        <v>6556.6472789999998</v>
       </c>
       <c r="AF23" s="1">
         <v>1.821291</v>
       </c>
       <c r="AG23" s="1">
-        <v>964.851000</v>
+        <v>964.851</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.094300</v>
+        <v>-74.094300000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>6567.210609</v>
+        <v>6567.2106089999997</v>
       </c>
       <c r="AK23" s="1">
         <v>1.824225</v>
       </c>
       <c r="AL23" s="1">
-        <v>971.881000</v>
+        <v>971.88099999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-78.550300</v>
+        <v>-78.550299999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>6578.129539</v>
+        <v>6578.1295389999996</v>
       </c>
       <c r="AP23" s="1">
         <v>1.827258</v>
       </c>
       <c r="AQ23" s="1">
-        <v>979.761000</v>
+        <v>979.76099999999997</v>
       </c>
       <c r="AR23" s="1">
-        <v>-89.888100</v>
+        <v>-89.888099999999994</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>6589.180373</v>
+        <v>6589.1803730000001</v>
       </c>
       <c r="AU23" s="1">
         <v>1.830328</v>
       </c>
       <c r="AV23" s="1">
-        <v>989.401000</v>
+        <v>989.40099999999995</v>
       </c>
       <c r="AW23" s="1">
-        <v>-107.254000</v>
+        <v>-107.254</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>6600.116167</v>
+        <v>6600.1161670000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1.833366</v>
+        <v>1.8333660000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>997.422000</v>
+        <v>997.42200000000003</v>
       </c>
       <c r="BB23" s="1">
-        <v>-122.643000</v>
+        <v>-122.643</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>6611.407590</v>
+        <v>6611.4075899999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>1.836502</v>
+        <v>1.8365020000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1034.880000</v>
+        <v>1034.8800000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-193.828000</v>
+        <v>-193.828</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>6622.069133</v>
@@ -6058,407 +6474,407 @@
         <v>1.839464</v>
       </c>
       <c r="BK23" s="1">
-        <v>1099.530000</v>
+        <v>1099.53</v>
       </c>
       <c r="BL23" s="1">
-        <v>-310.333000</v>
+        <v>-310.33300000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>6632.304539</v>
+        <v>6632.3045389999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>1.842307</v>
+        <v>1.8423069999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1205.310000</v>
+        <v>1205.31</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-495.433000</v>
+        <v>-495.43299999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>6642.948221</v>
+        <v>6642.9482209999996</v>
       </c>
       <c r="BT23" s="1">
-        <v>1.845263</v>
+        <v>1.8452630000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1325.480000</v>
+        <v>1325.48</v>
       </c>
       <c r="BV23" s="1">
-        <v>-699.116000</v>
+        <v>-699.11599999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>6653.774366</v>
+        <v>6653.7743659999996</v>
       </c>
       <c r="BY23" s="1">
         <v>1.848271</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1460.550000</v>
+        <v>1460.55</v>
       </c>
       <c r="CA23" s="1">
-        <v>-917.190000</v>
+        <v>-917.19</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>6667.212509</v>
       </c>
       <c r="CD23" s="1">
-        <v>1.852003</v>
+        <v>1.8520030000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1817.910000</v>
+        <v>1817.91</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1434.980000</v>
+        <v>-1434.98</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>6495.034240</v>
+        <v>6495.03424</v>
       </c>
       <c r="B24" s="1">
         <v>1.804176</v>
       </c>
       <c r="C24" s="1">
-        <v>899.687000</v>
+        <v>899.68700000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-200.812000</v>
+        <v>-200.81200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>6505.112451</v>
       </c>
       <c r="G24" s="1">
-        <v>1.806976</v>
+        <v>1.8069759999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>917.896000</v>
+        <v>917.89599999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-169.790000</v>
+        <v>-169.79</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>6515.258614</v>
+        <v>6515.2586140000003</v>
       </c>
       <c r="L24" s="1">
-        <v>1.809794</v>
+        <v>1.8097939999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>940.317000</v>
+        <v>940.31700000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.719000</v>
+        <v>-119.71899999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>6525.602680</v>
+        <v>6525.60268</v>
       </c>
       <c r="Q24" s="1">
         <v>1.812667</v>
       </c>
       <c r="R24" s="1">
-        <v>946.852000</v>
+        <v>946.85199999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.339000</v>
+        <v>-103.339</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>6535.998363</v>
+        <v>6535.9983629999997</v>
       </c>
       <c r="V24" s="1">
         <v>1.815555</v>
       </c>
       <c r="W24" s="1">
-        <v>953.366000</v>
+        <v>953.36599999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.136500</v>
+        <v>-88.136499999999998</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>6546.559644</v>
+        <v>6546.5596439999999</v>
       </c>
       <c r="AA24" s="1">
         <v>1.818489</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.149000</v>
+        <v>960.149</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.439900</v>
+        <v>-76.439899999999994</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>6556.989519</v>
+        <v>6556.9895189999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>1.821386</v>
+        <v>1.8213859999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>964.809000</v>
+        <v>964.80899999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.022800</v>
+        <v>-74.022800000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>6567.562276</v>
+        <v>6567.5622759999997</v>
       </c>
       <c r="AK24" s="1">
-        <v>1.824323</v>
+        <v>1.8243229999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>971.860000</v>
+        <v>971.86</v>
       </c>
       <c r="AM24" s="1">
-        <v>-78.564700</v>
+        <v>-78.564700000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>6578.488642</v>
+        <v>6578.4886420000003</v>
       </c>
       <c r="AP24" s="1">
         <v>1.827358</v>
       </c>
       <c r="AQ24" s="1">
-        <v>979.794000</v>
+        <v>979.79399999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-89.894300</v>
+        <v>-89.894300000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>6589.910484</v>
       </c>
       <c r="AU24" s="1">
-        <v>1.830531</v>
+        <v>1.8305309999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>989.408000</v>
+        <v>989.40800000000002</v>
       </c>
       <c r="AW24" s="1">
-        <v>-107.264000</v>
+        <v>-107.264</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>6600.835398</v>
+        <v>6600.8353980000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1.833565</v>
+        <v>1.8335649999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>997.423000</v>
+        <v>997.423</v>
       </c>
       <c r="BB24" s="1">
-        <v>-122.619000</v>
+        <v>-122.619</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>6611.795689</v>
+        <v>6611.7956889999996</v>
       </c>
       <c r="BE24" s="1">
-        <v>1.836610</v>
+        <v>1.8366100000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1034.870000</v>
+        <v>1034.8699999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-193.806000</v>
+        <v>-193.80600000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>6622.445066</v>
+        <v>6622.4450660000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>1.839568</v>
+        <v>1.8395680000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1099.510000</v>
+        <v>1099.51</v>
       </c>
       <c r="BL24" s="1">
-        <v>-310.331000</v>
+        <v>-310.33100000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>6632.728122</v>
+        <v>6632.7281220000004</v>
       </c>
       <c r="BO24" s="1">
-        <v>1.842424</v>
+        <v>1.8424240000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1205.340000</v>
+        <v>1205.3399999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-495.395000</v>
+        <v>-495.39499999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>6643.680316</v>
+        <v>6643.6803159999999</v>
       </c>
       <c r="BT24" s="1">
         <v>1.845467</v>
       </c>
       <c r="BU24" s="1">
-        <v>1325.570000</v>
+        <v>1325.57</v>
       </c>
       <c r="BV24" s="1">
-        <v>-699.160000</v>
+        <v>-699.16</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>6654.536260</v>
+        <v>6654.5362599999999</v>
       </c>
       <c r="BY24" s="1">
         <v>1.848482</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1460.480000</v>
+        <v>1460.48</v>
       </c>
       <c r="CA24" s="1">
-        <v>-917.167000</v>
+        <v>-917.16700000000003</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>6667.453038</v>
+        <v>6667.4530379999997</v>
       </c>
       <c r="CD24" s="1">
-        <v>1.852070</v>
+        <v>1.8520700000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1817.920000</v>
+        <v>1817.92</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1435.270000</v>
+        <v>-1435.27</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>6495.376481</v>
+        <v>6495.3764810000002</v>
       </c>
       <c r="B25" s="1">
         <v>1.804271</v>
       </c>
       <c r="C25" s="1">
-        <v>899.678000</v>
+        <v>899.678</v>
       </c>
       <c r="D25" s="1">
-        <v>-200.486000</v>
+        <v>-200.48599999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>6505.530119</v>
       </c>
       <c r="G25" s="1">
-        <v>1.807092</v>
+        <v>1.8070919999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>917.021000</v>
+        <v>917.02099999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.917000</v>
+        <v>-168.917</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>6515.673269</v>
+        <v>6515.6732689999999</v>
       </c>
       <c r="L25" s="1">
         <v>1.809909</v>
       </c>
       <c r="M25" s="1">
-        <v>940.294000</v>
+        <v>940.29399999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.668000</v>
+        <v>-119.66800000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>6525.894855</v>
+        <v>6525.8948549999996</v>
       </c>
       <c r="Q25" s="1">
-        <v>1.812749</v>
+        <v>1.8127489999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>946.844000</v>
+        <v>946.84400000000005</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.312000</v>
+        <v>-103.312</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>6536.341563</v>
       </c>
       <c r="V25" s="1">
-        <v>1.815650</v>
+        <v>1.81565</v>
       </c>
       <c r="W25" s="1">
-        <v>953.314000</v>
+        <v>953.31399999999996</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.156000</v>
+        <v>-88.156000000000006</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>6546.908332</v>
@@ -6467,437 +6883,438 @@
         <v>1.818586</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.227000</v>
+        <v>960.22699999999998</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.356000</v>
+        <v>-76.355999999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>6557.332750</v>
+        <v>6557.3327499999996</v>
       </c>
       <c r="AF25" s="1">
-        <v>1.821481</v>
+        <v>1.8214809999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>964.837000</v>
+        <v>964.83699999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.065700</v>
+        <v>-74.065700000000007</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>6567.910928</v>
+        <v>6567.9109280000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>1.824420</v>
+        <v>1.8244199999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>971.878000</v>
+        <v>971.87800000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-78.580100</v>
+        <v>-78.580100000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>6579.217233</v>
+        <v>6579.2172330000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>1.827560</v>
+        <v>1.8275600000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>979.774000</v>
+        <v>979.774</v>
       </c>
       <c r="AR25" s="1">
-        <v>-89.901000</v>
+        <v>-89.900999999999996</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>6590.299842</v>
+        <v>6590.2998420000004</v>
       </c>
       <c r="AU25" s="1">
-        <v>1.830639</v>
+        <v>1.8306389999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>989.395000</v>
+        <v>989.39499999999998</v>
       </c>
       <c r="AW25" s="1">
-        <v>-107.249000</v>
+        <v>-107.249</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>6601.191996</v>
+        <v>6601.1919959999996</v>
       </c>
       <c r="AZ25" s="1">
         <v>1.833664</v>
       </c>
       <c r="BA25" s="1">
-        <v>997.410000</v>
+        <v>997.41</v>
       </c>
       <c r="BB25" s="1">
-        <v>-122.643000</v>
+        <v>-122.643</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>6612.179183</v>
+        <v>6612.1791830000002</v>
       </c>
       <c r="BE25" s="1">
         <v>1.836716</v>
       </c>
       <c r="BF25" s="1">
-        <v>1034.860000</v>
+        <v>1034.8599999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-193.830000</v>
+        <v>-193.83</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>6623.116153</v>
+        <v>6623.1161529999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>1.839754</v>
+        <v>1.8397539999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1099.520000</v>
+        <v>1099.52</v>
       </c>
       <c r="BL25" s="1">
-        <v>-310.372000</v>
+        <v>-310.37200000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>6633.435945</v>
+        <v>6633.4359450000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>1.842621</v>
+        <v>1.8426210000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1205.300000</v>
+        <v>1205.3</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-495.419000</v>
+        <v>-495.41899999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>6643.805772</v>
+        <v>6643.8057719999997</v>
       </c>
       <c r="BT25" s="1">
         <v>1.845502</v>
       </c>
       <c r="BU25" s="1">
-        <v>1325.640000</v>
+        <v>1325.64</v>
       </c>
       <c r="BV25" s="1">
-        <v>-699.375000</v>
+        <v>-699.375</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>6654.652287</v>
+        <v>6654.6522869999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>1.848515</v>
+        <v>1.8485149999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1460.460000</v>
+        <v>1460.46</v>
       </c>
       <c r="CA25" s="1">
-        <v>-917.153000</v>
+        <v>-917.15300000000002</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>6667.972348</v>
+        <v>6667.9723480000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>1.852215</v>
+        <v>1.8522149999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1817.200000</v>
+        <v>1817.2</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1436.050000</v>
+        <v>-1436.05</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>6495.803567</v>
+        <v>6495.8035669999999</v>
       </c>
       <c r="B26" s="1">
-        <v>1.804390</v>
+        <v>1.8043899999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>899.607000</v>
+        <v>899.60699999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-200.561000</v>
+        <v>-200.56100000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>6505.816802</v>
+        <v>6505.8168020000003</v>
       </c>
       <c r="G26" s="1">
-        <v>1.807171</v>
+        <v>1.8071710000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>917.449000</v>
+        <v>917.44899999999996</v>
       </c>
       <c r="I26" s="1">
-        <v>-169.562000</v>
+        <v>-169.56200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>6515.971365</v>
+        <v>6515.9713650000003</v>
       </c>
       <c r="L26" s="1">
         <v>1.809992</v>
       </c>
       <c r="M26" s="1">
-        <v>940.443000</v>
+        <v>940.44299999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.821000</v>
+        <v>-119.821</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>6526.246023</v>
+        <v>6526.2460229999997</v>
       </c>
       <c r="Q26" s="1">
         <v>1.812846</v>
       </c>
       <c r="R26" s="1">
-        <v>946.897000</v>
+        <v>946.89700000000005</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.332000</v>
+        <v>-103.33199999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>6536.683803</v>
+        <v>6536.6838029999999</v>
       </c>
       <c r="V26" s="1">
-        <v>1.815746</v>
+        <v>1.8157460000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>953.272000</v>
+        <v>953.27200000000005</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.109000</v>
+        <v>-88.108999999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>6547.256060</v>
+        <v>6547.2560599999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.818682</v>
+        <v>1.8186819999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.234000</v>
+        <v>960.23400000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.366200</v>
+        <v>-76.366200000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>6558.021234</v>
+        <v>6558.0212339999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>1.821673</v>
+        <v>1.8216730000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.842000</v>
+        <v>964.84199999999998</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.039500</v>
+        <v>-74.039500000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>6568.607311</v>
+        <v>6568.6073109999998</v>
       </c>
       <c r="AK26" s="1">
         <v>1.824613</v>
       </c>
       <c r="AL26" s="1">
-        <v>971.852000</v>
+        <v>971.85199999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-78.568500</v>
+        <v>-78.5685</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>6579.594225</v>
+        <v>6579.5942249999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>1.827665</v>
+        <v>1.8276650000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>979.780000</v>
+        <v>979.78</v>
       </c>
       <c r="AR26" s="1">
-        <v>-89.888700</v>
+        <v>-89.8887</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>6590.664403</v>
+        <v>6590.6644029999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>1.830740</v>
+        <v>1.83074</v>
       </c>
       <c r="AV26" s="1">
-        <v>989.400000</v>
+        <v>989.4</v>
       </c>
       <c r="AW26" s="1">
-        <v>-107.262000</v>
+        <v>-107.262</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>6601.549108</v>
+        <v>6601.5491080000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>1.833764</v>
+        <v>1.8337639999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>997.399000</v>
+        <v>997.399</v>
       </c>
       <c r="BB26" s="1">
-        <v>-122.658000</v>
+        <v>-122.658</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>6612.834582</v>
+        <v>6612.8345820000004</v>
       </c>
       <c r="BE26" s="1">
-        <v>1.836898</v>
+        <v>1.8368979999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1034.870000</v>
+        <v>1034.8699999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-193.832000</v>
+        <v>-193.83199999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>6623.221303</v>
+        <v>6623.2213030000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>1.839784</v>
+        <v>1.8397840000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1099.530000</v>
+        <v>1099.53</v>
       </c>
       <c r="BL26" s="1">
-        <v>-310.317000</v>
+        <v>-310.31700000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>6633.543891</v>
+        <v>6633.5438910000003</v>
       </c>
       <c r="BO26" s="1">
         <v>1.842651</v>
       </c>
       <c r="BP26" s="1">
-        <v>1205.310000</v>
+        <v>1205.31</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-495.421000</v>
+        <v>-495.42099999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>6644.217980</v>
+        <v>6644.2179800000004</v>
       </c>
       <c r="BT26" s="1">
-        <v>1.845616</v>
+        <v>1.8456159999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1325.650000</v>
+        <v>1325.65</v>
       </c>
       <c r="BV26" s="1">
-        <v>-699.450000</v>
+        <v>-699.45</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>6655.091743</v>
       </c>
       <c r="BY26" s="1">
-        <v>1.848637</v>
+        <v>1.8486370000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1460.510000</v>
+        <v>1460.51</v>
       </c>
       <c r="CA26" s="1">
-        <v>-917.323000</v>
+        <v>-917.32299999999998</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>6668.490172</v>
+        <v>6668.4901719999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>1.852358</v>
+        <v>1.8523579999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1817.040000</v>
+        <v>1817.04</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1435.530000</v>
+        <v>-1435.53</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>